--- a/completed_games_with_predictions.xlsx
+++ b/completed_games_with_predictions.xlsx
@@ -650,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO222"/>
+  <dimension ref="A1:CO227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -1210,12 +1210,6 @@
       </c>
       <c r="CM2">
         <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>107.328125</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1229,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1319,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1376,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -1454,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD3">
         <v>0</v>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="4" spans="1:93">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1579,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1612,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1684,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -1711,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -1766,12 +1760,6 @@
       </c>
       <c r="CM4">
         <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>103.828125</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1794,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1839,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1896,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1911,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1974,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -2037,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -2057,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2087,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2156,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2165,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2237,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2315,19 +2303,13 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>1</v>
-      </c>
-      <c r="CO6">
-        <v>134.515625</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -2347,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2416,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2452,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -2473,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <v>0</v>
@@ -2530,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -2560,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7">
         <v>0</v>
@@ -2622,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2652,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2703,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2742,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2781,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8">
         <v>0</v>
@@ -2868,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8">
         <v>0</v>
       </c>
       <c r="CL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM8">
         <v>0</v>
@@ -2921,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2963,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -3056,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9">
         <v>0</v>
@@ -3153,6 +3135,12 @@
       </c>
       <c r="CM9">
         <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>1</v>
+      </c>
+      <c r="CO9">
+        <v>123.0546875</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -3232,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -3271,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -3304,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -3331,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="BG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10">
         <v>0</v>
@@ -3421,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="CK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL10">
         <v>0</v>
@@ -3441,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3471,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3564,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3585,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -3639,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -3767,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -3782,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -3797,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3863,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -3896,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="BL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -3941,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="CA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB12">
         <v>0</v>
@@ -3997,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4045,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -4147,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -4183,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="BP13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13">
         <v>0</v>
@@ -4225,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="CD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -4253,6 +4241,12 @@
       </c>
       <c r="CM13">
         <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>103.171875</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -4302,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -4422,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -4458,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="BP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
         <v>0</v>
@@ -4500,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="CD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE14">
         <v>0</v>
@@ -4528,6 +4522,12 @@
       </c>
       <c r="CM14">
         <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>111.9453125</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15">
         <v>0</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="CA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB15">
         <v>0</v>
@@ -4803,6 +4803,12 @@
       </c>
       <c r="CM15">
         <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>106.8515625</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4834,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4849,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4918,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -4954,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -4990,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16">
         <v>0</v>
@@ -5002,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16">
         <v>0</v>
@@ -5078,12 +5084,6 @@
       </c>
       <c r="CM16">
         <v>0</v>
-      </c>
-      <c r="CN16">
-        <v>0</v>
-      </c>
-      <c r="CO16">
-        <v>112.59375</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="CJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK17">
         <v>0</v>
@@ -5359,6 +5359,12 @@
       </c>
       <c r="CM17">
         <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>110.4296875</v>
       </c>
     </row>
     <row r="18" spans="1:93">
@@ -5372,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5390,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -5510,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -5525,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -5546,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18">
         <v>0</v>
@@ -5576,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="BT18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18">
         <v>0</v>
@@ -5634,6 +5640,12 @@
       </c>
       <c r="CM18">
         <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>1</v>
+      </c>
+      <c r="CO18">
+        <v>136.7421875</v>
       </c>
     </row>
     <row r="19" spans="1:93">
@@ -5650,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -5677,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -5734,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -5791,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -5848,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19">
         <v>0</v>
@@ -5905,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="CL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM19">
         <v>0</v>
@@ -5976,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -5985,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -6003,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -6015,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -6093,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="BI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20">
         <v>0</v>
@@ -6102,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="BL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20">
         <v>0</v>
@@ -6206,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -6242,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -6278,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -6308,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -6377,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="BL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21">
         <v>0</v>
@@ -6386,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="BO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>0</v>
@@ -6475,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -6523,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -6550,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -6574,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -6658,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO22">
         <v>0</v>
@@ -6721,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="CI22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ22">
         <v>0</v>
@@ -6804,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -6846,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -6888,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
         <v>0</v>
@@ -6963,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="BX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY23">
         <v>0</v>
@@ -7008,13 +7020,7 @@
         <v>0</v>
       </c>
       <c r="CM23">
-        <v>1</v>
-      </c>
-      <c r="CN23">
-        <v>1</v>
-      </c>
-      <c r="CO23">
-        <v>125.140625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:93">
@@ -7070,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -7124,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -7187,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="BE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -7205,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="BK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24">
         <v>0</v>
@@ -7220,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="BP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24">
         <v>0</v>
@@ -7290,6 +7296,12 @@
       </c>
       <c r="CM24">
         <v>0</v>
+      </c>
+      <c r="CN24">
+        <v>0</v>
+      </c>
+      <c r="CO24">
+        <v>104.5546875</v>
       </c>
     </row>
     <row r="25" spans="1:93">
@@ -7339,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -7372,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -7435,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -7459,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25">
         <v>0</v>
@@ -7522,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="BY25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ25">
         <v>0</v>
@@ -7537,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="CD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE25">
         <v>0</v>
@@ -7565,17 +7577,11 @@
       </c>
       <c r="CM25">
         <v>0</v>
-      </c>
-      <c r="CN25">
-        <v>1</v>
-      </c>
-      <c r="CO25">
-        <v>124.875</v>
       </c>
     </row>
     <row r="26" spans="1:93">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7602,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -7704,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -7722,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="AX26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26">
         <v>0</v>
@@ -7758,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK26">
         <v>0</v>
@@ -7797,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="BW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX26">
         <v>0</v>
@@ -7850,7 +7856,7 @@
     </row>
     <row r="27" spans="1:93">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7892,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -7967,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -7976,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -8054,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="BQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR27">
         <v>0</v>
@@ -8066,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="BU27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV27">
         <v>0</v>
@@ -8121,6 +8127,12 @@
       </c>
       <c r="CM27">
         <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>1</v>
+      </c>
+      <c r="CO27">
+        <v>119.734375</v>
       </c>
     </row>
     <row r="28" spans="1:93">
@@ -8143,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -8179,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -8245,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -8323,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -8377,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="CG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH28">
         <v>0</v>
@@ -8421,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -8475,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -8526,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -8604,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="BQ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR29">
         <v>0</v>
@@ -8652,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="CG29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH29">
         <v>0</v>
@@ -8687,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -8753,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -8801,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -8879,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="BQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30">
         <v>0</v>
@@ -8927,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="CG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH30">
         <v>0</v>
@@ -8986,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -9007,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -9058,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -9079,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31">
         <v>0</v>
@@ -9172,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="BW31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY31">
         <v>0</v>
@@ -9261,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -9297,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -9348,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -9384,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC32">
         <v>0</v>
@@ -9399,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32">
         <v>0</v>
@@ -9423,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP32">
         <v>0</v>
@@ -9444,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="BV32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW32">
         <v>0</v>
@@ -9496,12 +9508,6 @@
       </c>
       <c r="CM32">
         <v>0</v>
-      </c>
-      <c r="CN32">
-        <v>1</v>
-      </c>
-      <c r="CO32">
-        <v>126.140625</v>
       </c>
     </row>
     <row r="33" spans="1:93">
@@ -9515,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -9569,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -9599,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
         <v>0</v>
@@ -9638,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -9713,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33">
         <v>0</v>
@@ -9755,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="CF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG33">
         <v>0</v>
@@ -9871,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -9934,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="AZ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34">
         <v>0</v>
@@ -9970,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="BL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -9991,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT34">
         <v>0</v>
@@ -10095,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -10113,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -10158,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -10212,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35">
         <v>0</v>
@@ -10230,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ35">
         <v>0</v>
@@ -10290,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="CA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB35">
         <v>0</v>
@@ -10327,12 +10333,6 @@
       </c>
       <c r="CM35">
         <v>0</v>
-      </c>
-      <c r="CN35">
-        <v>1</v>
-      </c>
-      <c r="CO35">
-        <v>120.703125</v>
       </c>
     </row>
     <row r="36" spans="1:93">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -10478,13 +10478,13 @@
         <v>0</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW36">
         <v>0</v>
       </c>
       <c r="AX36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY36">
         <v>0</v>
@@ -10565,10 +10565,10 @@
         <v>0</v>
       </c>
       <c r="BY36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA36">
         <v>0</v>
@@ -10608,12 +10608,6 @@
       </c>
       <c r="CM36">
         <v>0</v>
-      </c>
-      <c r="CN36">
-        <v>1</v>
-      </c>
-      <c r="CO36">
-        <v>108.796875</v>
       </c>
     </row>
     <row r="37" spans="1:93">
@@ -10654,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -10693,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -10714,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37">
         <v>0</v>
@@ -10732,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -10882,10 +10876,10 @@
         <v>0</v>
       </c>
       <c r="CK37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM37">
         <v>0</v>
@@ -10947,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -10980,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -11001,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -11118,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="BX38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY38">
         <v>0</v>
@@ -11151,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="CI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ38">
         <v>0</v>
@@ -11186,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -11216,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -11255,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -11306,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39">
         <v>0</v>
@@ -11414,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="CE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF39">
         <v>0</v>
@@ -11426,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="CI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ39">
         <v>0</v>
@@ -11449,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -11506,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -11530,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -11584,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW40">
         <v>0</v>
@@ -11671,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="BY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ40">
         <v>0</v>
@@ -11701,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="CI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ40">
         <v>0</v>
@@ -11727,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -11751,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -11853,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -11862,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="AW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -11955,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="CB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC41">
         <v>0</v>
@@ -11979,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="CJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK41">
         <v>0</v>
@@ -12020,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -12050,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -12080,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="AD42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -12152,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC42">
         <v>0</v>
@@ -12212,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="BV42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW42">
         <v>0</v>
@@ -12251,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="CI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ42">
         <v>0</v>
@@ -12304,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -12328,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -12427,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC43">
         <v>0</v>
@@ -12439,13 +12433,13 @@
         <v>0</v>
       </c>
       <c r="BF43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43">
         <v>0</v>
@@ -12460,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="BM43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43">
         <v>0</v>
@@ -12487,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="BV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW43">
         <v>0</v>
@@ -12539,6 +12533,12 @@
       </c>
       <c r="CM43">
         <v>0</v>
+      </c>
+      <c r="CN43">
+        <v>1</v>
+      </c>
+      <c r="CO43">
+        <v>109.4453125</v>
       </c>
     </row>
     <row r="44" spans="1:93">
@@ -12816,10 +12816,10 @@
         <v>0</v>
       </c>
       <c r="CN44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO44">
-        <v>111.890625</v>
+        <v>113.6796875</v>
       </c>
     </row>
     <row r="45" spans="1:93">
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -12854,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -13079,10 +13079,10 @@
         <v>0</v>
       </c>
       <c r="CH45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ45">
         <v>0</v>
@@ -13132,10 +13132,10 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -13267,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="BE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF46">
         <v>0</v>
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="BI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="BP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ46">
         <v>0</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="BK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL47">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="CI47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ47">
         <v>0</v>
@@ -13645,12 +13645,6 @@
       </c>
       <c r="CM47">
         <v>0</v>
-      </c>
-      <c r="CN47">
-        <v>0</v>
-      </c>
-      <c r="CO47">
-        <v>119.578125</v>
       </c>
     </row>
     <row r="48" spans="1:93">
@@ -13670,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -13718,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -13775,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48">
         <v>0</v>
@@ -13793,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="AU48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV48">
         <v>0</v>
@@ -13853,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="BO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP48">
         <v>0</v>
@@ -13901,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="CE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF48">
         <v>0</v>
@@ -13936,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -13999,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -14035,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -14074,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -14116,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49">
         <v>0</v>
@@ -14167,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC49">
         <v>0</v>
@@ -14271,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -14280,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -14343,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="AU50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV50">
         <v>0</v>
@@ -14355,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="AY50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -14451,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="CE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF50">
         <v>0</v>
@@ -14475,7 +14469,13 @@
         <v>0</v>
       </c>
       <c r="CM50">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CN50">
+        <v>0</v>
+      </c>
+      <c r="CO50">
+        <v>119.0703125</v>
       </c>
     </row>
     <row r="51" spans="1:93">
@@ -14537,13 +14537,13 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -14751,12 +14751,6 @@
       </c>
       <c r="CM51">
         <v>0</v>
-      </c>
-      <c r="CN51">
-        <v>0</v>
-      </c>
-      <c r="CO51">
-        <v>107.421875</v>
       </c>
     </row>
     <row r="52" spans="1:93">
@@ -14764,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -14827,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -14929,16 +14923,16 @@
         <v>0</v>
       </c>
       <c r="BE52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52">
         <v>0</v>
       </c>
       <c r="BG52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI52">
         <v>0</v>
@@ -14962,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="BP52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ52">
         <v>0</v>
@@ -15013,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="CG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH52">
         <v>0</v>
@@ -15093,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -15141,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -15186,7 +15180,7 @@
         <v>0</v>
       </c>
       <c r="AY53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53">
         <v>0</v>
@@ -15222,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="BK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53">
         <v>0</v>
@@ -15306,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="CM53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:93">
@@ -15368,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -15377,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -15407,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -15467,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="BA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54">
         <v>0</v>
@@ -15545,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="CA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB54">
         <v>0</v>
@@ -15578,10 +15572,16 @@
         <v>0</v>
       </c>
       <c r="CL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM54">
         <v>0</v>
+      </c>
+      <c r="CN54">
+        <v>1</v>
+      </c>
+      <c r="CO54">
+        <v>114.4765625</v>
       </c>
     </row>
     <row r="55" spans="1:93">
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>0</v>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="BC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD55">
         <v>0</v>
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="BQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR55">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="BT55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU55">
         <v>0</v>
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -16026,7 +16026,7 @@
         <v>0</v>
       </c>
       <c r="BD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE56">
         <v>0</v>
@@ -16104,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="CD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE56">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="CK56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL56">
         <v>0</v>
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="AH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="AU57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV57">
         <v>0</v>
@@ -16376,13 +16376,13 @@
         <v>0</v>
       </c>
       <c r="CC57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD57">
         <v>0</v>
       </c>
       <c r="CE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF57">
         <v>0</v>
@@ -16407,12 +16407,6 @@
       </c>
       <c r="CM57">
         <v>0</v>
-      </c>
-      <c r="CN57">
-        <v>1</v>
-      </c>
-      <c r="CO57">
-        <v>127.78125</v>
       </c>
     </row>
     <row r="58" spans="1:93">
@@ -16441,13 +16435,13 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -16549,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -16567,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
         <v>0</v>
@@ -16624,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="BR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS58">
         <v>0</v>
@@ -16687,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="CM58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:93">
@@ -16704,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -16761,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -16794,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59">
         <v>0</v>
@@ -16845,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="AZ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59">
         <v>0</v>
@@ -16872,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="BI59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ59">
         <v>0</v>
@@ -16902,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="BS59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT59">
         <v>0</v>
@@ -17021,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -17045,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -17054,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -17084,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -17183,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="BU60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV60">
         <v>0</v>
@@ -17225,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="CI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ60">
         <v>0</v>
@@ -17272,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -17299,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -17332,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -17341,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -17431,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="BL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61">
         <v>0</v>
@@ -17482,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="CC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD61">
         <v>0</v>
@@ -17513,6 +17507,12 @@
       </c>
       <c r="CM61">
         <v>0</v>
+      </c>
+      <c r="CN61">
+        <v>1</v>
+      </c>
+      <c r="CO61">
+        <v>113.8046875</v>
       </c>
     </row>
     <row r="62" spans="1:93">
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -17649,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="AZ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62">
         <v>0</v>
@@ -17691,10 +17691,10 @@
         <v>0</v>
       </c>
       <c r="BG62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI62">
         <v>0</v>
@@ -17724,10 +17724,10 @@
         <v>0</v>
       </c>
       <c r="BR62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT62">
         <v>0</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -17960,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="BE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF63">
         <v>0</v>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="BP63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ63">
         <v>0</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="CJ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK63">
         <v>0</v>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -18103,7 +18103,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="AZ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA64">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>0</v>
       </c>
       <c r="BE64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF64">
         <v>0</v>
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="BP64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ64">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="BS64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT64">
         <v>0</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="65" spans="1:93">
       <c r="A65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="BF65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG65">
         <v>1</v>
@@ -18534,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="BM65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN65">
         <v>0</v>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
       <c r="CG65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH65">
         <v>0</v>
@@ -18618,7 +18618,7 @@
         <v>1</v>
       </c>
       <c r="CO65">
-        <v>122.265625</v>
+        <v>131.359375</v>
       </c>
     </row>
     <row r="66" spans="1:93">
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -18707,10 +18707,10 @@
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66">
         <v>0</v>
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66">
         <v>0</v>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="BX66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY66">
         <v>0</v>
@@ -18881,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="CI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ66">
         <v>0</v>
@@ -18919,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -19021,7 +19021,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67">
         <v>0</v>
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="BO67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP67">
         <v>0</v>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="CK67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL67">
         <v>0</v>
@@ -19248,7 +19248,7 @@
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0</v>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
       <c r="BN68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68">
         <v>0</v>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="CG68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH68">
         <v>0</v>
@@ -19444,6 +19444,12 @@
       </c>
       <c r="CM68">
         <v>0</v>
+      </c>
+      <c r="CN68">
+        <v>0</v>
+      </c>
+      <c r="CO68">
+        <v>127.4921875</v>
       </c>
     </row>
     <row r="69" spans="1:93">
@@ -19478,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -19493,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -19535,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="AD69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -19574,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>0</v>
@@ -19652,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="BQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR69">
         <v>0</v>
@@ -19706,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="CI69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ69">
         <v>0</v>
@@ -19723,7 +19729,7 @@
     </row>
     <row r="70" spans="1:93">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -19756,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -19840,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -19891,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="BE70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF70">
         <v>0</v>
@@ -19924,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="BP70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ70">
         <v>0</v>
@@ -19939,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="BU70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV70">
         <v>0</v>
@@ -19994,17 +20000,11 @@
       </c>
       <c r="CM70">
         <v>0</v>
-      </c>
-      <c r="CN70">
-        <v>1</v>
-      </c>
-      <c r="CO70">
-        <v>110.46875</v>
       </c>
     </row>
     <row r="71" spans="1:93">
       <c r="A71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>0</v>
@@ -20166,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="BC71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD71">
         <v>0</v>
@@ -20208,7 +20208,7 @@
         <v>0</v>
       </c>
       <c r="BQ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR71">
         <v>0</v>
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="BT71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72">
         <v>0</v>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -20474,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="BN72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO72">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="CJ72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK72">
         <v>0</v>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -20719,10 +20719,10 @@
         <v>0</v>
       </c>
       <c r="BD73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF73">
         <v>0</v>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
       <c r="BP73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ73">
         <v>0</v>
@@ -20797,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="CD73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE73">
         <v>0</v>
@@ -20825,11 +20825,17 @@
       </c>
       <c r="CM73">
         <v>0</v>
+      </c>
+      <c r="CN73">
+        <v>1</v>
+      </c>
+      <c r="CO73">
+        <v>110.1171875</v>
       </c>
     </row>
     <row r="74" spans="1:93">
       <c r="A74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -20883,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -20919,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -20982,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="AZ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA74">
         <v>0</v>
@@ -21018,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="BL74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -21039,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="BS74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT74">
         <v>0</v>
@@ -21100,6 +21106,12 @@
       </c>
       <c r="CM74">
         <v>0</v>
+      </c>
+      <c r="CN74">
+        <v>0</v>
+      </c>
+      <c r="CO74">
+        <v>107.2734375</v>
       </c>
     </row>
     <row r="75" spans="1:93">
@@ -21143,7 +21155,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -21224,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP75">
         <v>0</v>
@@ -21269,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="BD75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE75">
         <v>0</v>
@@ -21302,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="BO75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP75">
         <v>0</v>
@@ -21347,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="CD75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE75">
         <v>0</v>
@@ -21388,7 +21400,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -21454,7 +21466,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
         <v>0</v>
@@ -21523,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="AW76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX76">
         <v>0</v>
@@ -21532,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="AZ76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA76">
         <v>0</v>
@@ -21589,7 +21601,7 @@
         <v>0</v>
       </c>
       <c r="BS76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT76">
         <v>0</v>
@@ -21616,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="CB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC76">
         <v>0</v>
@@ -21650,12 +21662,6 @@
       </c>
       <c r="CM76">
         <v>0</v>
-      </c>
-      <c r="CN76">
-        <v>1</v>
-      </c>
-      <c r="CO76">
-        <v>124.265625</v>
       </c>
     </row>
     <row r="77" spans="1:93">
@@ -21663,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -21693,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -21765,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="AJ77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -21813,7 +21819,7 @@
         <v>0</v>
       </c>
       <c r="AZ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA77">
         <v>0</v>
@@ -21846,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="BK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL77">
         <v>0</v>
@@ -21870,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="BS77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT77">
         <v>0</v>
@@ -21995,13 +22001,13 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -22088,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="AZ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA78">
         <v>0</v>
@@ -22103,7 +22109,7 @@
         <v>0</v>
       </c>
       <c r="BE78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF78">
         <v>0</v>
@@ -22136,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="BP78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ78">
         <v>0</v>
@@ -22145,7 +22151,7 @@
         <v>0</v>
       </c>
       <c r="BS78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT78">
         <v>0</v>
@@ -22285,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -22339,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="AR79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS79">
         <v>0</v>
@@ -22363,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="AZ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA79">
         <v>0</v>
@@ -22420,7 +22426,7 @@
         <v>0</v>
       </c>
       <c r="BS79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT79">
         <v>0</v>
@@ -22432,7 +22438,7 @@
         <v>0</v>
       </c>
       <c r="BW79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX79">
         <v>0</v>
@@ -22481,6 +22487,12 @@
       </c>
       <c r="CM79">
         <v>0</v>
+      </c>
+      <c r="CN79">
+        <v>0</v>
+      </c>
+      <c r="CO79">
+        <v>113.0859375</v>
       </c>
     </row>
     <row r="80" spans="1:93">
@@ -22521,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -22536,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -22629,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="AW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX80">
         <v>0</v>
@@ -22647,7 +22659,7 @@
         <v>0</v>
       </c>
       <c r="BC80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD80">
         <v>0</v>
@@ -22698,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="BT80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU80">
         <v>0</v>
@@ -22722,7 +22734,7 @@
         <v>0</v>
       </c>
       <c r="CB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC80">
         <v>0</v>
@@ -22756,12 +22768,6 @@
       </c>
       <c r="CM80">
         <v>0</v>
-      </c>
-      <c r="CN80">
-        <v>0</v>
-      </c>
-      <c r="CO80">
-        <v>115.28125</v>
       </c>
     </row>
     <row r="81" spans="1:93">
@@ -22799,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -22841,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -22853,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="AD81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE81">
         <v>0</v>
@@ -22910,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="AW81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX81">
         <v>0</v>
@@ -23003,7 +23009,7 @@
         <v>0</v>
       </c>
       <c r="CB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC81">
         <v>0</v>
@@ -23024,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="CI81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ81">
         <v>0</v>
@@ -23059,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -23185,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="AW82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX82">
         <v>0</v>
@@ -23194,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="AZ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA82">
         <v>0</v>
@@ -23251,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="BS82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT82">
         <v>0</v>
@@ -23278,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="CB82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC82">
         <v>0</v>
@@ -23312,12 +23318,6 @@
       </c>
       <c r="CM82">
         <v>0</v>
-      </c>
-      <c r="CN82">
-        <v>0</v>
-      </c>
-      <c r="CO82">
-        <v>99.953125</v>
       </c>
     </row>
     <row r="83" spans="1:93">
@@ -23334,7 +23334,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="AW83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX83">
         <v>0</v>
       </c>
       <c r="AY83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ83">
         <v>0</v>
@@ -23496,10 +23496,10 @@
         <v>0</v>
       </c>
       <c r="BG83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI83">
         <v>0</v>
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="CB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC83">
         <v>0</v>
@@ -23592,12 +23592,18 @@
         <v>0</v>
       </c>
       <c r="CM83">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="CN83">
+        <v>1</v>
+      </c>
+      <c r="CO83">
+        <v>131.8046875</v>
       </c>
     </row>
     <row r="84" spans="1:93">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -23621,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -23723,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR84">
         <v>0</v>
@@ -23762,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="BD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE84">
         <v>0</v>
@@ -23801,7 +23807,7 @@
         <v>0</v>
       </c>
       <c r="BQ84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR84">
         <v>0</v>
@@ -23840,7 +23846,7 @@
         <v>0</v>
       </c>
       <c r="CD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE84">
         <v>0</v>
@@ -23911,7 +23917,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -23932,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -24004,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT85">
         <v>0</v>
@@ -24028,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="BA85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB85">
         <v>0</v>
@@ -24079,7 +24085,7 @@
         <v>0</v>
       </c>
       <c r="BR85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS85">
         <v>0</v>
@@ -24106,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="CA85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB85">
         <v>0</v>
@@ -24143,12 +24149,6 @@
       </c>
       <c r="CM85">
         <v>0</v>
-      </c>
-      <c r="CN85">
-        <v>1</v>
-      </c>
-      <c r="CO85">
-        <v>110.984375</v>
       </c>
     </row>
     <row r="86" spans="1:93">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="AH86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI86">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>0</v>
       </c>
       <c r="AR86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS86">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="BW86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX86">
         <v>0</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="CC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD86">
         <v>0</v>
@@ -24500,13 +24500,13 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87">
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="AK87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="AZ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA87">
         <v>0</v>
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="BS87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT87">
         <v>0</v>
@@ -24653,7 +24653,7 @@
         <v>0</v>
       </c>
       <c r="BX87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY87">
         <v>0</v>
@@ -24706,10 +24706,10 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -24832,7 +24832,7 @@
         <v>0</v>
       </c>
       <c r="AR88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS88">
         <v>0</v>
@@ -24865,7 +24865,7 @@
         <v>0</v>
       </c>
       <c r="BC88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         <v>0</v>
       </c>
       <c r="BT88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU88">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="BW88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX88">
         <v>0</v>
@@ -25032,7 +25032,7 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="AG89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH89">
         <v>0</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="AU89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV89">
         <v>0</v>
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="CE89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF89">
         <v>0</v>
@@ -25245,16 +25245,10 @@
         <v>0</v>
       </c>
       <c r="CL89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM89">
         <v>0</v>
-      </c>
-      <c r="CN89">
-        <v>0</v>
-      </c>
-      <c r="CO89">
-        <v>111.109375</v>
       </c>
     </row>
     <row r="90" spans="1:93">
@@ -25262,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -25301,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -25358,7 +25352,7 @@
         <v>0</v>
       </c>
       <c r="AH90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI90">
         <v>0</v>
@@ -25385,7 +25379,7 @@
         <v>0</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR90">
         <v>0</v>
@@ -25463,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="BQ90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR90">
         <v>0</v>
@@ -25530,12 +25524,6 @@
       </c>
       <c r="CM90">
         <v>0</v>
-      </c>
-      <c r="CN90">
-        <v>0</v>
-      </c>
-      <c r="CO90">
-        <v>110.09375</v>
       </c>
     </row>
     <row r="91" spans="1:93">
@@ -25564,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -25621,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE91">
         <v>0</v>
@@ -25699,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="BB91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC91">
         <v>0</v>
@@ -25759,7 +25747,7 @@
         <v>0</v>
       </c>
       <c r="BV91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW91">
         <v>0</v>
@@ -25798,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="CI91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ91">
         <v>0</v>
@@ -25833,7 +25821,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -25854,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -25908,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG92">
         <v>0</v>
@@ -25929,7 +25917,7 @@
         <v>0</v>
       </c>
       <c r="AM92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN92">
         <v>0</v>
@@ -26064,7 +26052,7 @@
         <v>0</v>
       </c>
       <c r="CF92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG92">
         <v>0</v>
@@ -26079,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="CK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL92">
         <v>0</v>
@@ -26093,7 +26081,7 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -26159,7 +26147,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -26201,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM93">
         <v>0</v>
@@ -26231,7 +26219,7 @@
         <v>0</v>
       </c>
       <c r="AV93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW93">
         <v>0</v>
@@ -26285,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="BN93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO93">
         <v>0</v>
@@ -26318,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="BY93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ93">
         <v>0</v>
@@ -26407,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -26419,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -26458,7 +26446,7 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG94">
         <v>0</v>
@@ -26503,7 +26491,7 @@
         <v>0</v>
       </c>
       <c r="AU94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV94">
         <v>0</v>
@@ -26611,10 +26599,10 @@
         <v>0</v>
       </c>
       <c r="CE94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG94">
         <v>0</v>
@@ -26636,6 +26624,12 @@
       </c>
       <c r="CM94">
         <v>0</v>
+      </c>
+      <c r="CN94">
+        <v>0</v>
+      </c>
+      <c r="CO94">
+        <v>116.1796875</v>
       </c>
     </row>
     <row r="95" spans="1:93">
@@ -26658,7 +26652,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -26667,7 +26661,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -26763,7 +26757,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>0</v>
@@ -26799,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="BB95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC95">
         <v>0</v>
@@ -26838,7 +26832,7 @@
         <v>0</v>
       </c>
       <c r="BO95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP95">
         <v>0</v>
@@ -26859,7 +26853,7 @@
         <v>0</v>
       </c>
       <c r="BV95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW95">
         <v>0</v>
@@ -27059,10 +27053,10 @@
         <v>0</v>
       </c>
       <c r="AW96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY96">
         <v>0</v>
@@ -27089,16 +27083,16 @@
         <v>0</v>
       </c>
       <c r="BG96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI96">
         <v>0</v>
       </c>
       <c r="BJ96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK96">
         <v>0</v>
@@ -27152,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="CB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC96">
         <v>0</v>
@@ -27186,6 +27180,12 @@
       </c>
       <c r="CM96">
         <v>0</v>
+      </c>
+      <c r="CN96">
+        <v>1</v>
+      </c>
+      <c r="CO96">
+        <v>115.859375</v>
       </c>
     </row>
     <row r="97" spans="1:93">
@@ -27196,7 +27196,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -27268,7 +27268,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97">
         <v>0</v>
@@ -27277,7 +27277,7 @@
         <v>0</v>
       </c>
       <c r="AD97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE97">
         <v>0</v>
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="AG97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH97">
         <v>0</v>
@@ -27448,7 +27448,7 @@
         <v>0</v>
       </c>
       <c r="CI97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ97">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         <v>0</v>
       </c>
       <c r="CL97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM97">
         <v>0</v>
@@ -27495,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
         <v>0</v>
@@ -27561,7 +27561,7 @@
         <v>0</v>
       </c>
       <c r="AG98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH98">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM98">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="BN98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO98">
         <v>0</v>
@@ -27732,7 +27732,7 @@
         <v>0</v>
       </c>
       <c r="CL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM98">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="AH99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI99">
         <v>0</v>
@@ -27851,7 +27851,7 @@
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
         <v>0</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="BN99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO99">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="CC99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD99">
         <v>0</v>
@@ -28042,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -28051,7 +28051,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -28111,7 +28111,7 @@
         <v>0</v>
       </c>
       <c r="AG100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH100">
         <v>0</v>
@@ -28162,7 +28162,7 @@
         <v>0</v>
       </c>
       <c r="AX100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY100">
         <v>0</v>
@@ -28189,16 +28189,16 @@
         <v>0</v>
       </c>
       <c r="BG100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI100">
         <v>0</v>
       </c>
       <c r="BJ100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK100">
         <v>0</v>
@@ -28282,16 +28282,10 @@
         <v>0</v>
       </c>
       <c r="CL100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM100">
         <v>0</v>
-      </c>
-      <c r="CN100">
-        <v>1</v>
-      </c>
-      <c r="CO100">
-        <v>122.734375</v>
       </c>
     </row>
     <row r="101" spans="1:93">
@@ -28323,7 +28317,7 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -28374,7 +28368,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -28386,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="AE101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -28446,7 +28440,7 @@
         <v>0</v>
       </c>
       <c r="AY101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ101">
         <v>0</v>
@@ -28485,7 +28479,7 @@
         <v>0</v>
       </c>
       <c r="BL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM101">
         <v>0</v>
@@ -28566,7 +28560,7 @@
         <v>0</v>
       </c>
       <c r="CM101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:93">
@@ -28589,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -28640,7 +28634,7 @@
         <v>0</v>
       </c>
       <c r="X102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y102">
         <v>0</v>
@@ -28721,10 +28715,10 @@
         <v>0</v>
       </c>
       <c r="AY102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA102">
         <v>0</v>
@@ -28781,7 +28775,7 @@
         <v>0</v>
       </c>
       <c r="BS102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT102">
         <v>0</v>
@@ -28841,7 +28835,7 @@
         <v>0</v>
       </c>
       <c r="CM102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:93">
@@ -28894,7 +28888,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -28915,7 +28909,7 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -28966,13 +28960,13 @@
         <v>0</v>
       </c>
       <c r="AO103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP103">
         <v>0</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR103">
         <v>0</v>
@@ -29044,13 +29038,13 @@
         <v>0</v>
       </c>
       <c r="BO103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP103">
         <v>0</v>
       </c>
       <c r="BQ103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR103">
         <v>0</v>
@@ -29142,7 +29136,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -29172,7 +29166,7 @@
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -29211,7 +29205,7 @@
         <v>0</v>
       </c>
       <c r="AE104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -29220,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="AH104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -29310,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="BL104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM104">
         <v>0</v>
@@ -29361,7 +29355,7 @@
         <v>0</v>
       </c>
       <c r="CC104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD104">
         <v>0</v>
@@ -29405,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -29444,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -29498,13 +29492,13 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ105">
         <v>0</v>
       </c>
       <c r="AK105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105">
         <v>0</v>
@@ -29576,7 +29570,7 @@
         <v>0</v>
       </c>
       <c r="BI105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ105">
         <v>0</v>
@@ -29621,7 +29615,7 @@
         <v>0</v>
       </c>
       <c r="BX105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY105">
         <v>0</v>
@@ -29667,12 +29661,6 @@
       </c>
       <c r="CM105">
         <v>0</v>
-      </c>
-      <c r="CN105">
-        <v>1</v>
-      </c>
-      <c r="CO105">
-        <v>127.203125</v>
       </c>
     </row>
     <row r="106" spans="1:93">
@@ -29716,7 +29704,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -29785,7 +29773,7 @@
         <v>0</v>
       </c>
       <c r="AK106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106">
         <v>0</v>
@@ -29839,7 +29827,7 @@
         <v>0</v>
       </c>
       <c r="BC106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD106">
         <v>0</v>
@@ -29890,7 +29878,7 @@
         <v>0</v>
       </c>
       <c r="BT106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU106">
         <v>0</v>
@@ -29902,7 +29890,7 @@
         <v>0</v>
       </c>
       <c r="BX106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY106">
         <v>0</v>
@@ -29988,7 +29976,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -30006,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="S107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -30084,7 +30072,7 @@
         <v>0</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT107">
         <v>0</v>
@@ -30099,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="AX107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY107">
         <v>0</v>
@@ -30135,7 +30123,7 @@
         <v>0</v>
       </c>
       <c r="BJ107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK107">
         <v>0</v>
@@ -30159,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="BR107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS107">
         <v>0</v>
@@ -30225,10 +30213,10 @@
         <v>0</v>
       </c>
       <c r="CN107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO107">
-        <v>116.125</v>
+        <v>119.5078125</v>
       </c>
     </row>
     <row r="108" spans="1:93">
@@ -30257,7 +30245,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -30305,7 +30293,7 @@
         <v>0</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z108">
         <v>0</v>
@@ -30368,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="AT108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -30392,7 +30380,7 @@
         <v>0</v>
       </c>
       <c r="BB108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC108">
         <v>0</v>
@@ -30452,7 +30440,7 @@
         <v>0</v>
       </c>
       <c r="BV108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW108">
         <v>0</v>
@@ -30494,7 +30482,7 @@
         <v>0</v>
       </c>
       <c r="CJ108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK108">
         <v>0</v>
@@ -30544,7 +30532,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -30559,7 +30547,7 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -30619,10 +30607,10 @@
         <v>0</v>
       </c>
       <c r="AL109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN109">
         <v>0</v>
@@ -30703,7 +30691,7 @@
         <v>0</v>
       </c>
       <c r="BN109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO109">
         <v>0</v>
@@ -30772,13 +30760,19 @@
         <v>0</v>
       </c>
       <c r="CK109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL109">
         <v>0</v>
       </c>
       <c r="CM109">
         <v>0</v>
+      </c>
+      <c r="CN109">
+        <v>0</v>
+      </c>
+      <c r="CO109">
+        <v>101.6796875</v>
       </c>
     </row>
     <row r="110" spans="1:93">
@@ -30795,7 +30789,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -30834,7 +30828,7 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -30870,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="AD110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE110">
         <v>0</v>
@@ -30951,7 +30945,7 @@
         <v>0</v>
       </c>
       <c r="BE110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF110">
         <v>0</v>
@@ -30984,7 +30978,7 @@
         <v>0</v>
       </c>
       <c r="BP110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ110">
         <v>0</v>
@@ -31041,7 +31035,7 @@
         <v>0</v>
       </c>
       <c r="CI110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ110">
         <v>0</v>
@@ -31088,7 +31082,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -31106,7 +31100,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -31163,7 +31157,7 @@
         <v>0</v>
       </c>
       <c r="AJ111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK111">
         <v>0</v>
@@ -31184,7 +31178,7 @@
         <v>0</v>
       </c>
       <c r="AQ111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>0</v>
@@ -31244,7 +31238,7 @@
         <v>0</v>
       </c>
       <c r="BK111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL111">
         <v>0</v>
@@ -31262,7 +31256,7 @@
         <v>0</v>
       </c>
       <c r="BQ111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR111">
         <v>0</v>
@@ -31342,7 +31336,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -31351,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -31435,7 +31429,7 @@
         <v>0</v>
       </c>
       <c r="AI112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ112">
         <v>0</v>
@@ -31498,7 +31492,7 @@
         <v>0</v>
       </c>
       <c r="BD112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE112">
         <v>0</v>
@@ -31513,7 +31507,7 @@
         <v>0</v>
       </c>
       <c r="BI112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ112">
         <v>0</v>
@@ -31576,7 +31570,7 @@
         <v>0</v>
       </c>
       <c r="CD112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE112">
         <v>0</v>
@@ -31604,6 +31598,12 @@
       </c>
       <c r="CM112">
         <v>0</v>
+      </c>
+      <c r="CN112">
+        <v>0</v>
+      </c>
+      <c r="CO112">
+        <v>110.9921875</v>
       </c>
     </row>
     <row r="113" spans="1:93">
@@ -31647,7 +31647,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -31689,7 +31689,7 @@
         <v>0</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -31710,7 +31710,7 @@
         <v>0</v>
       </c>
       <c r="AI113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ113">
         <v>0</v>
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR113">
         <v>0</v>
@@ -31788,7 +31788,7 @@
         <v>0</v>
       </c>
       <c r="BI113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ113">
         <v>0</v>
@@ -31812,7 +31812,7 @@
         <v>0</v>
       </c>
       <c r="BQ113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR113">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -31937,7 +31937,7 @@
         <v>0</v>
       </c>
       <c r="S114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -32015,7 +32015,7 @@
         <v>0</v>
       </c>
       <c r="AS114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT114">
         <v>0</v>
@@ -32033,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="AY114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ114">
         <v>0</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="BR114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS114">
         <v>0</v>
@@ -32153,7 +32153,13 @@
         <v>0</v>
       </c>
       <c r="CM114">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="CN114">
+        <v>0</v>
+      </c>
+      <c r="CO114">
+        <v>107.921875</v>
       </c>
     </row>
     <row r="115" spans="1:93">
@@ -32161,7 +32167,7 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -32221,7 +32227,7 @@
         <v>0</v>
       </c>
       <c r="V115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -32478,7 +32484,7 @@
         <v>0</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -32493,7 +32499,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -32523,7 +32529,7 @@
         <v>0</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -32532,7 +32538,7 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI116">
         <v>0</v>
@@ -32622,7 +32628,7 @@
         <v>0</v>
       </c>
       <c r="BL116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -32673,7 +32679,7 @@
         <v>0</v>
       </c>
       <c r="CC116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD116">
         <v>0</v>
@@ -32786,7 +32792,7 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -32825,7 +32831,7 @@
         <v>0</v>
       </c>
       <c r="AN117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO117">
         <v>0</v>
@@ -32855,7 +32861,7 @@
         <v>0</v>
       </c>
       <c r="AX117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY117">
         <v>0</v>
@@ -32924,7 +32930,7 @@
         <v>0</v>
       </c>
       <c r="BU117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV117">
         <v>0</v>
@@ -32939,7 +32945,7 @@
         <v>0</v>
       </c>
       <c r="BZ117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA117">
         <v>0</v>
@@ -32979,6 +32985,12 @@
       </c>
       <c r="CM117">
         <v>0</v>
+      </c>
+      <c r="CN117">
+        <v>1</v>
+      </c>
+      <c r="CO117">
+        <v>109.3046875</v>
       </c>
     </row>
     <row r="118" spans="1:93">
@@ -33043,13 +33055,13 @@
         <v>0</v>
       </c>
       <c r="U118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V118">
         <v>0</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X118">
         <v>0</v>
@@ -33103,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP118">
         <v>0</v>
@@ -33124,7 +33136,7 @@
         <v>0</v>
       </c>
       <c r="AV118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW118">
         <v>0</v>
@@ -33181,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="BO118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP118">
         <v>0</v>
@@ -33211,7 +33223,7 @@
         <v>0</v>
       </c>
       <c r="BY118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ118">
         <v>0</v>
@@ -33306,7 +33318,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -33333,7 +33345,7 @@
         <v>0</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
         <v>0</v>
@@ -33393,10 +33405,10 @@
         <v>0</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV119">
         <v>0</v>
@@ -33504,7 +33516,7 @@
         <v>0</v>
       </c>
       <c r="CE119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF119">
         <v>0</v>
@@ -33519,7 +33531,7 @@
         <v>0</v>
       </c>
       <c r="CJ119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK119">
         <v>0</v>
@@ -33593,7 +33605,7 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -33602,7 +33614,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y120">
         <v>0</v>
@@ -33632,7 +33644,7 @@
         <v>0</v>
       </c>
       <c r="AH120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI120">
         <v>0</v>
@@ -33686,7 +33698,7 @@
         <v>0</v>
       </c>
       <c r="AZ120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA120">
         <v>0</v>
@@ -33743,7 +33755,7 @@
         <v>0</v>
       </c>
       <c r="BS120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT120">
         <v>0</v>
@@ -33773,7 +33785,7 @@
         <v>0</v>
       </c>
       <c r="CC120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD120">
         <v>0</v>
@@ -33829,7 +33841,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -33847,7 +33859,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -33922,7 +33934,7 @@
         <v>0</v>
       </c>
       <c r="AM121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN121">
         <v>0</v>
@@ -33937,7 +33949,7 @@
         <v>0</v>
       </c>
       <c r="AR121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS121">
         <v>0</v>
@@ -34030,7 +34042,7 @@
         <v>0</v>
       </c>
       <c r="BW121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX121">
         <v>0</v>
@@ -34072,19 +34084,13 @@
         <v>0</v>
       </c>
       <c r="CK121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL121">
         <v>0</v>
       </c>
       <c r="CM121">
         <v>0</v>
-      </c>
-      <c r="CN121">
-        <v>1</v>
-      </c>
-      <c r="CO121">
-        <v>123.390625</v>
       </c>
     </row>
     <row r="122" spans="1:93">
@@ -34146,7 +34152,7 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U122">
         <v>0</v>
@@ -34170,7 +34176,7 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -34206,7 +34212,7 @@
         <v>0</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO122">
         <v>0</v>
@@ -34242,7 +34248,7 @@
         <v>0</v>
       </c>
       <c r="AZ122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA122">
         <v>0</v>
@@ -34299,13 +34305,13 @@
         <v>0</v>
       </c>
       <c r="BS122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT122">
         <v>0</v>
       </c>
       <c r="BU122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV122">
         <v>0</v>
@@ -34360,12 +34366,6 @@
       </c>
       <c r="CM122">
         <v>0</v>
-      </c>
-      <c r="CN122">
-        <v>0</v>
-      </c>
-      <c r="CO122">
-        <v>117.890625</v>
       </c>
     </row>
     <row r="123" spans="1:93">
@@ -34403,7 +34403,7 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB123">
         <v>0</v>
@@ -34472,7 +34472,7 @@
         <v>0</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ123">
         <v>0</v>
@@ -34493,7 +34493,7 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>0</v>
@@ -34550,7 +34550,7 @@
         <v>0</v>
       </c>
       <c r="BI123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ123">
         <v>0</v>
@@ -34568,7 +34568,7 @@
         <v>0</v>
       </c>
       <c r="BO123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP123">
         <v>0</v>
@@ -34641,12 +34641,6 @@
       </c>
       <c r="CM123">
         <v>0</v>
-      </c>
-      <c r="CN123">
-        <v>1</v>
-      </c>
-      <c r="CO123">
-        <v>116.46875</v>
       </c>
     </row>
     <row r="124" spans="1:93">
@@ -34666,7 +34660,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -34705,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -34807,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="BA124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB124">
         <v>0</v>
@@ -34885,7 +34879,7 @@
         <v>0</v>
       </c>
       <c r="CA124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB124">
         <v>0</v>
@@ -34903,7 +34897,7 @@
         <v>0</v>
       </c>
       <c r="CG124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH124">
         <v>0</v>
@@ -34941,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -35007,7 +35001,7 @@
         <v>0</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -35058,7 +35052,7 @@
         <v>0</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT125">
         <v>0</v>
@@ -35082,7 +35076,7 @@
         <v>0</v>
       </c>
       <c r="BA125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB125">
         <v>0</v>
@@ -35133,7 +35127,7 @@
         <v>0</v>
       </c>
       <c r="BR125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS125">
         <v>0</v>
@@ -35160,7 +35154,7 @@
         <v>0</v>
       </c>
       <c r="CA125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB125">
         <v>0</v>
@@ -35200,19 +35194,553 @@
       </c>
     </row>
     <row r="126" spans="1:93">
-      <c r="CN126">
-        <v>1</v>
-      </c>
-      <c r="CO126">
-        <v>129.015625</v>
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>1</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AS126">
+        <v>0</v>
+      </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
+      <c r="AU126">
+        <v>0</v>
+      </c>
+      <c r="AV126">
+        <v>0</v>
+      </c>
+      <c r="AW126">
+        <v>0</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>1</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+      <c r="BQ126">
+        <v>0</v>
+      </c>
+      <c r="BR126">
+        <v>0</v>
+      </c>
+      <c r="BS126">
+        <v>0</v>
+      </c>
+      <c r="BT126">
+        <v>0</v>
+      </c>
+      <c r="BU126">
+        <v>0</v>
+      </c>
+      <c r="BV126">
+        <v>0</v>
+      </c>
+      <c r="BW126">
+        <v>0</v>
+      </c>
+      <c r="BX126">
+        <v>0</v>
+      </c>
+      <c r="BY126">
+        <v>0</v>
+      </c>
+      <c r="BZ126">
+        <v>0</v>
+      </c>
+      <c r="CA126">
+        <v>0</v>
+      </c>
+      <c r="CB126">
+        <v>0</v>
+      </c>
+      <c r="CC126">
+        <v>0</v>
+      </c>
+      <c r="CD126">
+        <v>0</v>
+      </c>
+      <c r="CE126">
+        <v>0</v>
+      </c>
+      <c r="CF126">
+        <v>0</v>
+      </c>
+      <c r="CG126">
+        <v>0</v>
+      </c>
+      <c r="CH126">
+        <v>0</v>
+      </c>
+      <c r="CI126">
+        <v>0</v>
+      </c>
+      <c r="CJ126">
+        <v>0</v>
+      </c>
+      <c r="CK126">
+        <v>1</v>
+      </c>
+      <c r="CL126">
+        <v>0</v>
+      </c>
+      <c r="CM126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:93">
-      <c r="CN127">
-        <v>0</v>
-      </c>
-      <c r="CO127">
-        <v>103.015625</v>
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>0</v>
+      </c>
+      <c r="AR127">
+        <v>1</v>
+      </c>
+      <c r="AS127">
+        <v>0</v>
+      </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>0</v>
+      </c>
+      <c r="AV127">
+        <v>0</v>
+      </c>
+      <c r="AW127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>1</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+      <c r="BQ127">
+        <v>0</v>
+      </c>
+      <c r="BR127">
+        <v>0</v>
+      </c>
+      <c r="BS127">
+        <v>0</v>
+      </c>
+      <c r="BT127">
+        <v>0</v>
+      </c>
+      <c r="BU127">
+        <v>0</v>
+      </c>
+      <c r="BV127">
+        <v>0</v>
+      </c>
+      <c r="BW127">
+        <v>1</v>
+      </c>
+      <c r="BX127">
+        <v>0</v>
+      </c>
+      <c r="BY127">
+        <v>0</v>
+      </c>
+      <c r="BZ127">
+        <v>0</v>
+      </c>
+      <c r="CA127">
+        <v>0</v>
+      </c>
+      <c r="CB127">
+        <v>0</v>
+      </c>
+      <c r="CC127">
+        <v>0</v>
+      </c>
+      <c r="CD127">
+        <v>0</v>
+      </c>
+      <c r="CE127">
+        <v>0</v>
+      </c>
+      <c r="CF127">
+        <v>0</v>
+      </c>
+      <c r="CG127">
+        <v>0</v>
+      </c>
+      <c r="CH127">
+        <v>0</v>
+      </c>
+      <c r="CI127">
+        <v>0</v>
+      </c>
+      <c r="CJ127">
+        <v>0</v>
+      </c>
+      <c r="CK127">
+        <v>0</v>
+      </c>
+      <c r="CL127">
+        <v>0</v>
+      </c>
+      <c r="CM127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:93">
@@ -35220,7 +35748,7 @@
         <v>1</v>
       </c>
       <c r="CO128">
-        <v>117.890625</v>
+        <v>120.4921875</v>
       </c>
     </row>
     <row r="129" spans="92:93">
@@ -35228,7 +35756,7 @@
         <v>1</v>
       </c>
       <c r="CO129">
-        <v>115.671875</v>
+        <v>107.5546875</v>
       </c>
     </row>
     <row r="130" spans="92:93">
@@ -35236,15 +35764,15 @@
         <v>1</v>
       </c>
       <c r="CO130">
-        <v>119.75</v>
+        <v>107.0703125</v>
       </c>
     </row>
     <row r="131" spans="92:93">
       <c r="CN131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO131">
-        <v>114.15625</v>
+        <v>129.3671875</v>
       </c>
     </row>
     <row r="132" spans="92:93">
@@ -35252,15 +35780,15 @@
         <v>1</v>
       </c>
       <c r="CO132">
-        <v>122.578125</v>
+        <v>125.015625</v>
       </c>
     </row>
     <row r="133" spans="92:93">
       <c r="CN133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO133">
-        <v>114.96875</v>
+        <v>117.8203125</v>
       </c>
     </row>
     <row r="134" spans="92:93">
@@ -35268,7 +35796,7 @@
         <v>0</v>
       </c>
       <c r="CO134">
-        <v>129.984375</v>
+        <v>118.53125</v>
       </c>
     </row>
     <row r="135" spans="92:93">
@@ -35276,31 +35804,31 @@
         <v>1</v>
       </c>
       <c r="CO135">
-        <v>123.609375</v>
+        <v>129.3046875</v>
       </c>
     </row>
     <row r="136" spans="92:93">
       <c r="CN136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO136">
-        <v>112.015625</v>
+        <v>119.3046875</v>
       </c>
     </row>
     <row r="137" spans="92:93">
       <c r="CN137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO137">
-        <v>113.859375</v>
+        <v>106.3203125</v>
       </c>
     </row>
     <row r="138" spans="92:93">
       <c r="CN138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO138">
-        <v>109.71875</v>
+        <v>118.5703125</v>
       </c>
     </row>
     <row r="139" spans="92:93">
@@ -35308,47 +35836,47 @@
         <v>0</v>
       </c>
       <c r="CO139">
-        <v>110.890625</v>
+        <v>109.609375</v>
       </c>
     </row>
     <row r="140" spans="92:93">
       <c r="CN140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO140">
-        <v>104.140625</v>
+        <v>109.34375</v>
       </c>
     </row>
     <row r="141" spans="92:93">
       <c r="CN141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO141">
-        <v>114.859375</v>
+        <v>126.8671875</v>
       </c>
     </row>
     <row r="142" spans="92:93">
       <c r="CN142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO142">
-        <v>114.734375</v>
+        <v>110.4453125</v>
       </c>
     </row>
     <row r="143" spans="92:93">
       <c r="CN143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO143">
-        <v>114.609375</v>
+        <v>118.1796875</v>
       </c>
     </row>
     <row r="144" spans="92:93">
       <c r="CN144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO144">
-        <v>112.984375</v>
+        <v>123.5546875</v>
       </c>
     </row>
     <row r="145" spans="92:93">
@@ -35356,7 +35884,7 @@
         <v>1</v>
       </c>
       <c r="CO145">
-        <v>123.609375</v>
+        <v>117.8046875</v>
       </c>
     </row>
     <row r="146" spans="92:93">
@@ -35364,15 +35892,15 @@
         <v>0</v>
       </c>
       <c r="CO146">
-        <v>116.234375</v>
+        <v>109.6015625</v>
       </c>
     </row>
     <row r="147" spans="92:93">
       <c r="CN147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO147">
-        <v>124.765625</v>
+        <v>119.1171875</v>
       </c>
     </row>
     <row r="148" spans="92:93">
@@ -35380,7 +35908,7 @@
         <v>1</v>
       </c>
       <c r="CO148">
-        <v>117.890625</v>
+        <v>129.0546875</v>
       </c>
     </row>
     <row r="149" spans="92:93">
@@ -35388,7 +35916,7 @@
         <v>1</v>
       </c>
       <c r="CO149">
-        <v>127.53125</v>
+        <v>117.0390625</v>
       </c>
     </row>
     <row r="150" spans="92:93">
@@ -35396,23 +35924,23 @@
         <v>0</v>
       </c>
       <c r="CO150">
-        <v>108.828125</v>
+        <v>97.9296875</v>
       </c>
     </row>
     <row r="151" spans="92:93">
       <c r="CN151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO151">
-        <v>122.640625</v>
+        <v>117.53125</v>
       </c>
     </row>
     <row r="152" spans="92:93">
       <c r="CN152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO152">
-        <v>125.265625</v>
+        <v>112.265625</v>
       </c>
     </row>
     <row r="153" spans="92:93">
@@ -35420,7 +35948,7 @@
         <v>0</v>
       </c>
       <c r="CO153">
-        <v>115.578125</v>
+        <v>112.0390625</v>
       </c>
     </row>
     <row r="154" spans="92:93">
@@ -35428,31 +35956,31 @@
         <v>1</v>
       </c>
       <c r="CO154">
-        <v>1835243884346766</v>
+        <v>122.828125</v>
       </c>
     </row>
     <row r="155" spans="92:93">
       <c r="CN155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO155">
-        <v>111.703125</v>
+        <v>123.859375</v>
       </c>
     </row>
     <row r="156" spans="92:93">
       <c r="CN156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO156">
-        <v>115.046875</v>
+        <v>120.4609375</v>
       </c>
     </row>
     <row r="157" spans="92:93">
       <c r="CN157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO157">
-        <v>110.984375</v>
+        <v>118.0546875</v>
       </c>
     </row>
     <row r="158" spans="92:93">
@@ -35460,7 +35988,7 @@
         <v>1</v>
       </c>
       <c r="CO158">
-        <v>113.484375</v>
+        <v>122.0546875</v>
       </c>
     </row>
     <row r="159" spans="92:93">
@@ -35468,15 +35996,15 @@
         <v>1</v>
       </c>
       <c r="CO159">
-        <v>123.234375</v>
+        <v>122.0546875</v>
       </c>
     </row>
     <row r="160" spans="92:93">
       <c r="CN160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO160">
-        <v>109.046875</v>
+        <v>118.5546875</v>
       </c>
     </row>
     <row r="161" spans="92:93">
@@ -35484,15 +36012,15 @@
         <v>0</v>
       </c>
       <c r="CO161">
-        <v>102.953125</v>
+        <v>116.4375</v>
       </c>
     </row>
     <row r="162" spans="92:93">
       <c r="CN162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO162">
-        <v>144.765625</v>
+        <v>109.2109375</v>
       </c>
     </row>
     <row r="163" spans="92:93">
@@ -35500,7 +36028,7 @@
         <v>1</v>
       </c>
       <c r="CO163">
-        <v>126.140625</v>
+        <v>116.5546875</v>
       </c>
     </row>
     <row r="164" spans="92:93">
@@ -35508,7 +36036,7 @@
         <v>1</v>
       </c>
       <c r="CO164">
-        <v>128.265625</v>
+        <v>121.7421875</v>
       </c>
     </row>
     <row r="165" spans="92:93">
@@ -35516,15 +36044,15 @@
         <v>1</v>
       </c>
       <c r="CO165">
-        <v>126.1875</v>
+        <v>130.8046875</v>
       </c>
     </row>
     <row r="166" spans="92:93">
       <c r="CN166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO166">
-        <v>124.140625</v>
+        <v>108.265625</v>
       </c>
     </row>
     <row r="167" spans="92:93">
@@ -35532,15 +36060,15 @@
         <v>1</v>
       </c>
       <c r="CO167">
-        <v>123.953125</v>
+        <v>119.5703125</v>
       </c>
     </row>
     <row r="168" spans="92:93">
       <c r="CN168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO168">
-        <v>131.90625</v>
+        <v>115.4921875</v>
       </c>
     </row>
     <row r="169" spans="92:93">
@@ -35548,15 +36076,15 @@
         <v>1</v>
       </c>
       <c r="CO169">
-        <v>120.390625</v>
+        <v>122.1953125</v>
       </c>
     </row>
     <row r="170" spans="92:93">
       <c r="CN170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO170">
-        <v>103.015625</v>
+        <v>125.4296875</v>
       </c>
     </row>
     <row r="171" spans="92:93">
@@ -35564,7 +36092,7 @@
         <v>0</v>
       </c>
       <c r="CO171">
-        <v>112.890625</v>
+        <v>108.3046875</v>
       </c>
     </row>
     <row r="172" spans="92:93">
@@ -35572,7 +36100,7 @@
         <v>0</v>
       </c>
       <c r="CO172">
-        <v>104.859375</v>
+        <v>112.9375</v>
       </c>
     </row>
     <row r="173" spans="92:93">
@@ -35580,7 +36108,7 @@
         <v>1</v>
       </c>
       <c r="CO173">
-        <v>114.3125</v>
+        <v>105.8046875</v>
       </c>
     </row>
     <row r="174" spans="92:93">
@@ -35588,15 +36116,15 @@
         <v>1</v>
       </c>
       <c r="CO174">
-        <v>121.921875</v>
+        <v>118.0546875</v>
       </c>
     </row>
     <row r="175" spans="92:93">
       <c r="CN175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO175">
-        <v>113.890625</v>
+        <v>130.6796875</v>
       </c>
     </row>
     <row r="176" spans="92:93">
@@ -35604,7 +36132,7 @@
         <v>1</v>
       </c>
       <c r="CO176">
-        <v>114.53125</v>
+        <v>122.5546875</v>
       </c>
     </row>
     <row r="177" spans="92:93">
@@ -35612,23 +36140,23 @@
         <v>1</v>
       </c>
       <c r="CO177">
-        <v>126.484375</v>
+        <v>130.0859375</v>
       </c>
     </row>
     <row r="178" spans="92:93">
       <c r="CN178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO178">
-        <v>120.640625</v>
+        <v>117.3046875</v>
       </c>
     </row>
     <row r="179" spans="92:93">
       <c r="CN179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO179">
-        <v>106.515625</v>
+        <v>122.2421875</v>
       </c>
     </row>
     <row r="180" spans="92:93">
@@ -35636,7 +36164,7 @@
         <v>1</v>
       </c>
       <c r="CO180">
-        <v>126.421875</v>
+        <v>113.4296875</v>
       </c>
     </row>
     <row r="181" spans="92:93">
@@ -35644,15 +36172,15 @@
         <v>1</v>
       </c>
       <c r="CO181">
-        <v>126.796875</v>
+        <v>129.8125</v>
       </c>
     </row>
     <row r="182" spans="92:93">
       <c r="CN182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO182">
-        <v>119.65625</v>
+        <v>114.8046875</v>
       </c>
     </row>
     <row r="183" spans="92:93">
@@ -35660,7 +36188,7 @@
         <v>0</v>
       </c>
       <c r="CO183">
-        <v>106.890625</v>
+        <v>121.8046875</v>
       </c>
     </row>
     <row r="184" spans="92:93">
@@ -35668,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="CO184">
-        <v>120.109375</v>
+        <v>109.8046875</v>
       </c>
     </row>
     <row r="185" spans="92:93">
@@ -35676,7 +36204,7 @@
         <v>1</v>
       </c>
       <c r="CO185">
-        <v>117.984375</v>
+        <v>121.7421875</v>
       </c>
     </row>
     <row r="186" spans="92:93">
@@ -35684,7 +36212,7 @@
         <v>1</v>
       </c>
       <c r="CO186">
-        <v>126.5625</v>
+        <v>119.0703125</v>
       </c>
     </row>
     <row r="187" spans="92:93">
@@ -35692,15 +36220,15 @@
         <v>1</v>
       </c>
       <c r="CO187">
-        <v>124.765625</v>
+        <v>117.6953125</v>
       </c>
     </row>
     <row r="188" spans="92:93">
       <c r="CN188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO188">
-        <v>132.359375</v>
+        <v>113.1796875</v>
       </c>
     </row>
     <row r="189" spans="92:93">
@@ -35708,7 +36236,7 @@
         <v>1</v>
       </c>
       <c r="CO189">
-        <v>133.140625</v>
+        <v>120.3828125</v>
       </c>
     </row>
     <row r="190" spans="92:93">
@@ -35716,7 +36244,7 @@
         <v>0</v>
       </c>
       <c r="CO190">
-        <v>105.234375</v>
+        <v>114.4296875</v>
       </c>
     </row>
     <row r="191" spans="92:93">
@@ -35724,31 +36252,31 @@
         <v>1</v>
       </c>
       <c r="CO191">
-        <v>113.265625</v>
+        <v>119.0546875</v>
       </c>
     </row>
     <row r="192" spans="92:93">
       <c r="CN192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO192">
-        <v>112.609375</v>
+        <v>105.5546875</v>
       </c>
     </row>
     <row r="193" spans="92:93">
       <c r="CN193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO193">
-        <v>113.515625</v>
+        <v>114.3046875</v>
       </c>
     </row>
     <row r="194" spans="92:93">
       <c r="CN194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO194">
-        <v>96.015625</v>
+        <v>117.3046875</v>
       </c>
     </row>
     <row r="195" spans="92:93">
@@ -35756,7 +36284,7 @@
         <v>1</v>
       </c>
       <c r="CO195">
-        <v>129.671875</v>
+        <v>-1678297235044766</v>
       </c>
     </row>
     <row r="196" spans="92:93">
@@ -35764,15 +36292,15 @@
         <v>1</v>
       </c>
       <c r="CO196">
-        <v>108.796875</v>
+        <v>119.1875</v>
       </c>
     </row>
     <row r="197" spans="92:93">
       <c r="CN197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO197">
-        <v>97.953125</v>
+        <v>117.8828125</v>
       </c>
     </row>
     <row r="198" spans="92:93">
@@ -35780,7 +36308,7 @@
         <v>0</v>
       </c>
       <c r="CO198">
-        <v>112.59375</v>
+        <v>111.875</v>
       </c>
     </row>
     <row r="199" spans="92:93">
@@ -35788,7 +36316,7 @@
         <v>1</v>
       </c>
       <c r="CO199">
-        <v>131.734375</v>
+        <v>113.0546875</v>
       </c>
     </row>
     <row r="200" spans="92:93">
@@ -35796,23 +36324,23 @@
         <v>1</v>
       </c>
       <c r="CO200">
-        <v>128.234375</v>
+        <v>130.7578125</v>
       </c>
     </row>
     <row r="201" spans="92:93">
       <c r="CN201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO201">
-        <v>121.390625</v>
+        <v>117.5546875</v>
       </c>
     </row>
     <row r="202" spans="92:93">
       <c r="CN202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO202">
-        <v>113.453125</v>
+        <v>123.6953125</v>
       </c>
     </row>
     <row r="203" spans="92:93">
@@ -35820,7 +36348,7 @@
         <v>1</v>
       </c>
       <c r="CO203">
-        <v>116.15625</v>
+        <v>120.0546875</v>
       </c>
     </row>
     <row r="204" spans="92:93">
@@ -35828,7 +36356,7 @@
         <v>1</v>
       </c>
       <c r="CO204">
-        <v>121.046875</v>
+        <v>116.0546875</v>
       </c>
     </row>
     <row r="205" spans="92:93">
@@ -35836,7 +36364,7 @@
         <v>1</v>
       </c>
       <c r="CO205">
-        <v>115.046875</v>
+        <v>115.4921875</v>
       </c>
     </row>
     <row r="206" spans="92:93">
@@ -35844,7 +36372,7 @@
         <v>1</v>
       </c>
       <c r="CO206">
-        <v>112.265625</v>
+        <v>112.3046875</v>
       </c>
     </row>
     <row r="207" spans="92:93">
@@ -35852,15 +36380,15 @@
         <v>1</v>
       </c>
       <c r="CO207">
-        <v>124.375</v>
+        <v>114.6015625</v>
       </c>
     </row>
     <row r="208" spans="92:93">
       <c r="CN208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO208">
-        <v>120.890625</v>
+        <v>107.9296875</v>
       </c>
     </row>
     <row r="209" spans="92:93">
@@ -35868,15 +36396,15 @@
         <v>0</v>
       </c>
       <c r="CO209">
-        <v>115.203125</v>
+        <v>113.7109375</v>
       </c>
     </row>
     <row r="210" spans="92:93">
       <c r="CN210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO210">
-        <v>116.671875</v>
+        <v>117.4375</v>
       </c>
     </row>
     <row r="211" spans="92:93">
@@ -35884,15 +36412,15 @@
         <v>1</v>
       </c>
       <c r="CO211">
-        <v>117.953125</v>
+        <v>110.5234375</v>
       </c>
     </row>
     <row r="212" spans="92:93">
       <c r="CN212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO212">
-        <v>110.28125</v>
+        <v>115.5546875</v>
       </c>
     </row>
     <row r="213" spans="92:93">
@@ -35900,15 +36428,15 @@
         <v>1</v>
       </c>
       <c r="CO213">
-        <v>129.609375</v>
+        <v>120.8671875</v>
       </c>
     </row>
     <row r="214" spans="92:93">
       <c r="CN214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO214">
-        <v>106.421875</v>
+        <v>127.3984375</v>
       </c>
     </row>
     <row r="215" spans="92:93">
@@ -35916,23 +36444,23 @@
         <v>1</v>
       </c>
       <c r="CO215">
-        <v>133.140625</v>
+        <v>123.0546875</v>
       </c>
     </row>
     <row r="216" spans="92:93">
       <c r="CN216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO216">
-        <v>115.765625</v>
+        <v>112.7421875</v>
       </c>
     </row>
     <row r="217" spans="92:93">
       <c r="CN217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO217">
-        <v>121.421875</v>
+        <v>106.5546875</v>
       </c>
     </row>
     <row r="218" spans="92:93">
@@ -35940,7 +36468,7 @@
         <v>1</v>
       </c>
       <c r="CO218">
-        <v>121.421875</v>
+        <v>441342299198490.1</v>
       </c>
     </row>
     <row r="219" spans="92:93">
@@ -35948,31 +36476,71 @@
         <v>1</v>
       </c>
       <c r="CO219">
-        <v>134.640625</v>
+        <v>106.8515625</v>
       </c>
     </row>
     <row r="220" spans="92:93">
       <c r="CN220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO220">
-        <v>128.890625</v>
+        <v>109.8671875</v>
       </c>
     </row>
     <row r="221" spans="92:93">
       <c r="CN221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO221">
-        <v>118.0625</v>
+        <v>113.1796875</v>
       </c>
     </row>
     <row r="222" spans="92:93">
       <c r="CN222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO222">
-        <v>127.890625</v>
+        <v>114.5546875</v>
+      </c>
+    </row>
+    <row r="223" spans="92:93">
+      <c r="CN223">
+        <v>1</v>
+      </c>
+      <c r="CO223">
+        <v>112.5546875</v>
+      </c>
+    </row>
+    <row r="224" spans="92:93">
+      <c r="CN224">
+        <v>0</v>
+      </c>
+      <c r="CO224">
+        <v>112.9765625</v>
+      </c>
+    </row>
+    <row r="225" spans="92:93">
+      <c r="CN225">
+        <v>0</v>
+      </c>
+      <c r="CO225">
+        <v>115.1484375</v>
+      </c>
+    </row>
+    <row r="226" spans="92:93">
+      <c r="CN226">
+        <v>1</v>
+      </c>
+      <c r="CO226">
+        <v>113.1796875</v>
+      </c>
+    </row>
+    <row r="227" spans="92:93">
+      <c r="CN227">
+        <v>0</v>
+      </c>
+      <c r="CO227">
+        <v>108.8671875</v>
       </c>
     </row>
   </sheetData>

--- a/completed_games_with_predictions.xlsx
+++ b/completed_games_with_predictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Away team_Boston Celtics</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>Predicted_HomeWin</t>
-  </si>
-  <si>
-    <t>Predicted_HomePts</t>
   </si>
 </sst>
 </file>
@@ -650,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO227"/>
+  <dimension ref="A1:CN227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:92">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,11 +930,8 @@
       <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:92">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:92">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1487,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:92">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1762,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:92">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2037,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:92">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2312,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:92">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2587,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:92">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2862,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:92">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3139,11 +3133,8 @@
       <c r="CN9">
         <v>1</v>
       </c>
-      <c r="CO9">
-        <v>123.0546875</v>
-      </c>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:92">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3418,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:93">
+    <row r="11" spans="1:92">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3693,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:93">
+    <row r="12" spans="1:92">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3968,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:93">
+    <row r="13" spans="1:92">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4245,11 +4236,8 @@
       <c r="CN13">
         <v>0</v>
       </c>
-      <c r="CO13">
-        <v>103.171875</v>
-      </c>
     </row>
-    <row r="14" spans="1:93">
+    <row r="14" spans="1:92">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4526,11 +4514,8 @@
       <c r="CN14">
         <v>0</v>
       </c>
-      <c r="CO14">
-        <v>111.9453125</v>
-      </c>
     </row>
-    <row r="15" spans="1:93">
+    <row r="15" spans="1:92">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4807,11 +4792,8 @@
       <c r="CN15">
         <v>0</v>
       </c>
-      <c r="CO15">
-        <v>106.8515625</v>
-      </c>
     </row>
-    <row r="16" spans="1:93">
+    <row r="16" spans="1:92">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5086,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:93">
+    <row r="17" spans="1:92">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5363,11 +5345,8 @@
       <c r="CN17">
         <v>0</v>
       </c>
-      <c r="CO17">
-        <v>110.4296875</v>
-      </c>
     </row>
-    <row r="18" spans="1:93">
+    <row r="18" spans="1:92">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5644,11 +5623,8 @@
       <c r="CN18">
         <v>1</v>
       </c>
-      <c r="CO18">
-        <v>136.7421875</v>
-      </c>
     </row>
-    <row r="19" spans="1:93">
+    <row r="19" spans="1:92">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5923,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:93">
+    <row r="20" spans="1:92">
       <c r="A20">
         <v>0</v>
       </c>
@@ -6198,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:93">
+    <row r="21" spans="1:92">
       <c r="A21">
         <v>0</v>
       </c>
@@ -6473,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:93">
+    <row r="22" spans="1:92">
       <c r="A22">
         <v>0</v>
       </c>
@@ -6748,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:93">
+    <row r="23" spans="1:92">
       <c r="A23">
         <v>0</v>
       </c>
@@ -7023,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:93">
+    <row r="24" spans="1:92">
       <c r="A24">
         <v>0</v>
       </c>
@@ -7300,11 +7276,8 @@
       <c r="CN24">
         <v>0</v>
       </c>
-      <c r="CO24">
-        <v>104.5546875</v>
-      </c>
     </row>
-    <row r="25" spans="1:93">
+    <row r="25" spans="1:92">
       <c r="A25">
         <v>0</v>
       </c>
@@ -7579,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:93">
+    <row r="26" spans="1:92">
       <c r="A26">
         <v>0</v>
       </c>
@@ -7854,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:93">
+    <row r="27" spans="1:92">
       <c r="A27">
         <v>0</v>
       </c>
@@ -8131,11 +8104,8 @@
       <c r="CN27">
         <v>1</v>
       </c>
-      <c r="CO27">
-        <v>119.734375</v>
-      </c>
     </row>
-    <row r="28" spans="1:93">
+    <row r="28" spans="1:92">
       <c r="A28">
         <v>0</v>
       </c>
@@ -8410,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:93">
+    <row r="29" spans="1:92">
       <c r="A29">
         <v>0</v>
       </c>
@@ -8685,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:93">
+    <row r="30" spans="1:92">
       <c r="A30">
         <v>0</v>
       </c>
@@ -8960,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:93">
+    <row r="31" spans="1:92">
       <c r="A31">
         <v>0</v>
       </c>
@@ -9235,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:93">
+    <row r="32" spans="1:92">
       <c r="A32">
         <v>0</v>
       </c>
@@ -9510,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:93">
+    <row r="33" spans="1:92">
       <c r="A33">
         <v>0</v>
       </c>
@@ -9785,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:93">
+    <row r="34" spans="1:92">
       <c r="A34">
         <v>0</v>
       </c>
@@ -10060,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:93">
+    <row r="35" spans="1:92">
       <c r="A35">
         <v>0</v>
       </c>
@@ -10335,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:93">
+    <row r="36" spans="1:92">
       <c r="A36">
         <v>0</v>
       </c>
@@ -10610,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:93">
+    <row r="37" spans="1:92">
       <c r="A37">
         <v>0</v>
       </c>
@@ -10885,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:93">
+    <row r="38" spans="1:92">
       <c r="A38">
         <v>0</v>
       </c>
@@ -11160,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:93">
+    <row r="39" spans="1:92">
       <c r="A39">
         <v>0</v>
       </c>
@@ -11435,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:93">
+    <row r="40" spans="1:92">
       <c r="A40">
         <v>0</v>
       </c>
@@ -11710,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:93">
+    <row r="41" spans="1:92">
       <c r="A41">
         <v>0</v>
       </c>
@@ -11985,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:93">
+    <row r="42" spans="1:92">
       <c r="A42">
         <v>0</v>
       </c>
@@ -12260,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:93">
+    <row r="43" spans="1:92">
       <c r="A43">
         <v>0</v>
       </c>
@@ -12537,11 +12507,8 @@
       <c r="CN43">
         <v>1</v>
       </c>
-      <c r="CO43">
-        <v>109.4453125</v>
-      </c>
     </row>
-    <row r="44" spans="1:93">
+    <row r="44" spans="1:92">
       <c r="A44">
         <v>0</v>
       </c>
@@ -12818,11 +12785,8 @@
       <c r="CN44">
         <v>1</v>
       </c>
-      <c r="CO44">
-        <v>113.6796875</v>
-      </c>
     </row>
-    <row r="45" spans="1:93">
+    <row r="45" spans="1:92">
       <c r="A45">
         <v>0</v>
       </c>
@@ -13097,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:93">
+    <row r="46" spans="1:92">
       <c r="A46">
         <v>0</v>
       </c>
@@ -13372,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:93">
+    <row r="47" spans="1:92">
       <c r="A47">
         <v>0</v>
       </c>
@@ -13647,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:93">
+    <row r="48" spans="1:92">
       <c r="A48">
         <v>0</v>
       </c>
@@ -13922,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:93">
+    <row r="49" spans="1:92">
       <c r="A49">
         <v>0</v>
       </c>
@@ -14197,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:93">
+    <row r="50" spans="1:92">
       <c r="A50">
         <v>0</v>
       </c>
@@ -14474,11 +14438,8 @@
       <c r="CN50">
         <v>0</v>
       </c>
-      <c r="CO50">
-        <v>119.0703125</v>
-      </c>
     </row>
-    <row r="51" spans="1:93">
+    <row r="51" spans="1:92">
       <c r="A51">
         <v>0</v>
       </c>
@@ -14753,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:93">
+    <row r="52" spans="1:92">
       <c r="A52">
         <v>0</v>
       </c>
@@ -15028,7 +14989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:93">
+    <row r="53" spans="1:92">
       <c r="A53">
         <v>0</v>
       </c>
@@ -15303,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:93">
+    <row r="54" spans="1:92">
       <c r="A54">
         <v>0</v>
       </c>
@@ -15580,11 +15541,8 @@
       <c r="CN54">
         <v>1</v>
       </c>
-      <c r="CO54">
-        <v>114.4765625</v>
-      </c>
     </row>
-    <row r="55" spans="1:93">
+    <row r="55" spans="1:92">
       <c r="A55">
         <v>0</v>
       </c>
@@ -15859,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:93">
+    <row r="56" spans="1:92">
       <c r="A56">
         <v>0</v>
       </c>
@@ -16134,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:93">
+    <row r="57" spans="1:92">
       <c r="A57">
         <v>0</v>
       </c>
@@ -16409,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:93">
+    <row r="58" spans="1:92">
       <c r="A58">
         <v>0</v>
       </c>
@@ -16684,7 +16642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:93">
+    <row r="59" spans="1:92">
       <c r="A59">
         <v>0</v>
       </c>
@@ -16959,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:93">
+    <row r="60" spans="1:92">
       <c r="A60">
         <v>0</v>
       </c>
@@ -17234,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:93">
+    <row r="61" spans="1:92">
       <c r="A61">
         <v>0</v>
       </c>
@@ -17511,11 +17469,8 @@
       <c r="CN61">
         <v>1</v>
       </c>
-      <c r="CO61">
-        <v>113.8046875</v>
-      </c>
     </row>
-    <row r="62" spans="1:93">
+    <row r="62" spans="1:92">
       <c r="A62">
         <v>0</v>
       </c>
@@ -17790,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:93">
+    <row r="63" spans="1:92">
       <c r="A63">
         <v>0</v>
       </c>
@@ -18065,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:93">
+    <row r="64" spans="1:92">
       <c r="A64">
         <v>0</v>
       </c>
@@ -18340,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:93">
+    <row r="65" spans="1:92">
       <c r="A65">
         <v>1</v>
       </c>
@@ -18617,11 +18572,8 @@
       <c r="CN65">
         <v>1</v>
       </c>
-      <c r="CO65">
-        <v>131.359375</v>
-      </c>
     </row>
-    <row r="66" spans="1:93">
+    <row r="66" spans="1:92">
       <c r="A66">
         <v>0</v>
       </c>
@@ -18896,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:93">
+    <row r="67" spans="1:92">
       <c r="A67">
         <v>0</v>
       </c>
@@ -19171,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:93">
+    <row r="68" spans="1:92">
       <c r="A68">
         <v>0</v>
       </c>
@@ -19448,11 +19400,8 @@
       <c r="CN68">
         <v>0</v>
       </c>
-      <c r="CO68">
-        <v>127.4921875</v>
-      </c>
     </row>
-    <row r="69" spans="1:93">
+    <row r="69" spans="1:92">
       <c r="A69">
         <v>0</v>
       </c>
@@ -19727,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:93">
+    <row r="70" spans="1:92">
       <c r="A70">
         <v>1</v>
       </c>
@@ -20002,7 +19951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:93">
+    <row r="71" spans="1:92">
       <c r="A71">
         <v>0</v>
       </c>
@@ -20277,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:93">
+    <row r="72" spans="1:92">
       <c r="A72">
         <v>0</v>
       </c>
@@ -20552,7 +20501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:93">
+    <row r="73" spans="1:92">
       <c r="A73">
         <v>0</v>
       </c>
@@ -20829,11 +20778,8 @@
       <c r="CN73">
         <v>1</v>
       </c>
-      <c r="CO73">
-        <v>110.1171875</v>
-      </c>
     </row>
-    <row r="74" spans="1:93">
+    <row r="74" spans="1:92">
       <c r="A74">
         <v>1</v>
       </c>
@@ -21110,11 +21056,8 @@
       <c r="CN74">
         <v>0</v>
       </c>
-      <c r="CO74">
-        <v>107.2734375</v>
-      </c>
     </row>
-    <row r="75" spans="1:93">
+    <row r="75" spans="1:92">
       <c r="A75">
         <v>0</v>
       </c>
@@ -21389,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:93">
+    <row r="76" spans="1:92">
       <c r="A76">
         <v>0</v>
       </c>
@@ -21664,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:93">
+    <row r="77" spans="1:92">
       <c r="A77">
         <v>0</v>
       </c>
@@ -21939,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:93">
+    <row r="78" spans="1:92">
       <c r="A78">
         <v>0</v>
       </c>
@@ -22214,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:93">
+    <row r="79" spans="1:92">
       <c r="A79">
         <v>0</v>
       </c>
@@ -22491,11 +22434,8 @@
       <c r="CN79">
         <v>0</v>
       </c>
-      <c r="CO79">
-        <v>113.0859375</v>
-      </c>
     </row>
-    <row r="80" spans="1:93">
+    <row r="80" spans="1:92">
       <c r="A80">
         <v>0</v>
       </c>
@@ -22770,7 +22710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93">
+    <row r="81" spans="1:92">
       <c r="A81">
         <v>0</v>
       </c>
@@ -23045,7 +22985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:93">
+    <row r="82" spans="1:92">
       <c r="A82">
         <v>0</v>
       </c>
@@ -23320,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:93">
+    <row r="83" spans="1:92">
       <c r="A83">
         <v>0</v>
       </c>
@@ -23597,11 +23537,8 @@
       <c r="CN83">
         <v>1</v>
       </c>
-      <c r="CO83">
-        <v>131.8046875</v>
-      </c>
     </row>
-    <row r="84" spans="1:93">
+    <row r="84" spans="1:92">
       <c r="A84">
         <v>1</v>
       </c>
@@ -23876,7 +23813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93">
+    <row r="85" spans="1:92">
       <c r="A85">
         <v>0</v>
       </c>
@@ -24151,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:93">
+    <row r="86" spans="1:92">
       <c r="A86">
         <v>0</v>
       </c>
@@ -24426,7 +24363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:93">
+    <row r="87" spans="1:92">
       <c r="A87">
         <v>0</v>
       </c>
@@ -24701,7 +24638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:93">
+    <row r="88" spans="1:92">
       <c r="A88">
         <v>0</v>
       </c>
@@ -24976,7 +24913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:93">
+    <row r="89" spans="1:92">
       <c r="A89">
         <v>0</v>
       </c>
@@ -25251,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:93">
+    <row r="90" spans="1:92">
       <c r="A90">
         <v>0</v>
       </c>
@@ -25526,7 +25463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:93">
+    <row r="91" spans="1:92">
       <c r="A91">
         <v>0</v>
       </c>
@@ -25801,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:93">
+    <row r="92" spans="1:92">
       <c r="A92">
         <v>0</v>
       </c>
@@ -26076,7 +26013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:93">
+    <row r="93" spans="1:92">
       <c r="A93">
         <v>0</v>
       </c>
@@ -26351,7 +26288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:93">
+    <row r="94" spans="1:92">
       <c r="A94">
         <v>0</v>
       </c>
@@ -26628,11 +26565,8 @@
       <c r="CN94">
         <v>0</v>
       </c>
-      <c r="CO94">
-        <v>116.1796875</v>
-      </c>
     </row>
-    <row r="95" spans="1:93">
+    <row r="95" spans="1:92">
       <c r="A95">
         <v>0</v>
       </c>
@@ -26907,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:93">
+    <row r="96" spans="1:92">
       <c r="A96">
         <v>0</v>
       </c>
@@ -27184,11 +27118,8 @@
       <c r="CN96">
         <v>1</v>
       </c>
-      <c r="CO96">
-        <v>115.859375</v>
-      </c>
     </row>
-    <row r="97" spans="1:93">
+    <row r="97" spans="1:92">
       <c r="A97">
         <v>0</v>
       </c>
@@ -27463,7 +27394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:93">
+    <row r="98" spans="1:92">
       <c r="A98">
         <v>0</v>
       </c>
@@ -27738,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:93">
+    <row r="99" spans="1:92">
       <c r="A99">
         <v>0</v>
       </c>
@@ -28013,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:93">
+    <row r="100" spans="1:92">
       <c r="A100">
         <v>0</v>
       </c>
@@ -28288,7 +28219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:93">
+    <row r="101" spans="1:92">
       <c r="A101">
         <v>0</v>
       </c>
@@ -28563,7 +28494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:93">
+    <row r="102" spans="1:92">
       <c r="A102">
         <v>0</v>
       </c>
@@ -28838,7 +28769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:93">
+    <row r="103" spans="1:92">
       <c r="A103">
         <v>0</v>
       </c>
@@ -29113,7 +29044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:93">
+    <row r="104" spans="1:92">
       <c r="A104">
         <v>0</v>
       </c>
@@ -29388,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:93">
+    <row r="105" spans="1:92">
       <c r="A105">
         <v>0</v>
       </c>
@@ -29663,7 +29594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:93">
+    <row r="106" spans="1:92">
       <c r="A106">
         <v>0</v>
       </c>
@@ -29938,7 +29869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:93">
+    <row r="107" spans="1:92">
       <c r="A107">
         <v>0</v>
       </c>
@@ -30215,11 +30146,8 @@
       <c r="CN107">
         <v>1</v>
       </c>
-      <c r="CO107">
-        <v>119.5078125</v>
-      </c>
     </row>
-    <row r="108" spans="1:93">
+    <row r="108" spans="1:92">
       <c r="A108">
         <v>0</v>
       </c>
@@ -30494,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:93">
+    <row r="109" spans="1:92">
       <c r="A109">
         <v>0</v>
       </c>
@@ -30771,11 +30699,8 @@
       <c r="CN109">
         <v>0</v>
       </c>
-      <c r="CO109">
-        <v>101.6796875</v>
-      </c>
     </row>
-    <row r="110" spans="1:93">
+    <row r="110" spans="1:92">
       <c r="A110">
         <v>0</v>
       </c>
@@ -31050,7 +30975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:93">
+    <row r="111" spans="1:92">
       <c r="A111">
         <v>0</v>
       </c>
@@ -31325,7 +31250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:93">
+    <row r="112" spans="1:92">
       <c r="A112">
         <v>0</v>
       </c>
@@ -31602,11 +31527,8 @@
       <c r="CN112">
         <v>0</v>
       </c>
-      <c r="CO112">
-        <v>110.9921875</v>
-      </c>
     </row>
-    <row r="113" spans="1:93">
+    <row r="113" spans="1:92">
       <c r="A113">
         <v>0</v>
       </c>
@@ -31881,7 +31803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:93">
+    <row r="114" spans="1:92">
       <c r="A114">
         <v>0</v>
       </c>
@@ -32158,11 +32080,8 @@
       <c r="CN114">
         <v>0</v>
       </c>
-      <c r="CO114">
-        <v>107.921875</v>
-      </c>
     </row>
-    <row r="115" spans="1:93">
+    <row r="115" spans="1:92">
       <c r="A115">
         <v>0</v>
       </c>
@@ -32437,7 +32356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:93">
+    <row r="116" spans="1:92">
       <c r="A116">
         <v>0</v>
       </c>
@@ -32712,7 +32631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:93">
+    <row r="117" spans="1:92">
       <c r="A117">
         <v>0</v>
       </c>
@@ -32989,11 +32908,8 @@
       <c r="CN117">
         <v>1</v>
       </c>
-      <c r="CO117">
-        <v>109.3046875</v>
-      </c>
     </row>
-    <row r="118" spans="1:93">
+    <row r="118" spans="1:92">
       <c r="A118">
         <v>0</v>
       </c>
@@ -33268,7 +33184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:93">
+    <row r="119" spans="1:92">
       <c r="A119">
         <v>0</v>
       </c>
@@ -33543,7 +33459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:93">
+    <row r="120" spans="1:92">
       <c r="A120">
         <v>0</v>
       </c>
@@ -33818,7 +33734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:93">
+    <row r="121" spans="1:92">
       <c r="A121">
         <v>0</v>
       </c>
@@ -34093,7 +34009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:93">
+    <row r="122" spans="1:92">
       <c r="A122">
         <v>0</v>
       </c>
@@ -34368,7 +34284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:93">
+    <row r="123" spans="1:92">
       <c r="A123">
         <v>0</v>
       </c>
@@ -34643,7 +34559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:93">
+    <row r="124" spans="1:92">
       <c r="A124">
         <v>0</v>
       </c>
@@ -34918,7 +34834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:93">
+    <row r="125" spans="1:92">
       <c r="A125">
         <v>0</v>
       </c>
@@ -35193,7 +35109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:93">
+    <row r="126" spans="1:92">
       <c r="A126">
         <v>0</v>
       </c>
@@ -35468,7 +35384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:93">
+    <row r="127" spans="1:92">
       <c r="A127">
         <v>0</v>
       </c>
@@ -35743,804 +35659,504 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:93">
+    <row r="128" spans="1:92">
       <c r="CN128">
         <v>1</v>
       </c>
-      <c r="CO128">
-        <v>120.4921875</v>
-      </c>
     </row>
-    <row r="129" spans="92:93">
+    <row r="129" spans="92:92">
       <c r="CN129">
         <v>1</v>
       </c>
-      <c r="CO129">
-        <v>107.5546875</v>
-      </c>
     </row>
-    <row r="130" spans="92:93">
+    <row r="130" spans="92:92">
       <c r="CN130">
         <v>1</v>
       </c>
-      <c r="CO130">
-        <v>107.0703125</v>
-      </c>
     </row>
-    <row r="131" spans="92:93">
+    <row r="131" spans="92:92">
       <c r="CN131">
         <v>1</v>
       </c>
-      <c r="CO131">
-        <v>129.3671875</v>
-      </c>
     </row>
-    <row r="132" spans="92:93">
+    <row r="132" spans="92:92">
       <c r="CN132">
         <v>1</v>
       </c>
-      <c r="CO132">
-        <v>125.015625</v>
-      </c>
     </row>
-    <row r="133" spans="92:93">
+    <row r="133" spans="92:92">
       <c r="CN133">
         <v>1</v>
       </c>
-      <c r="CO133">
-        <v>117.8203125</v>
-      </c>
     </row>
-    <row r="134" spans="92:93">
+    <row r="134" spans="92:92">
       <c r="CN134">
         <v>0</v>
       </c>
-      <c r="CO134">
-        <v>118.53125</v>
-      </c>
     </row>
-    <row r="135" spans="92:93">
+    <row r="135" spans="92:92">
       <c r="CN135">
         <v>1</v>
       </c>
-      <c r="CO135">
-        <v>129.3046875</v>
-      </c>
     </row>
-    <row r="136" spans="92:93">
+    <row r="136" spans="92:92">
       <c r="CN136">
         <v>1</v>
       </c>
-      <c r="CO136">
-        <v>119.3046875</v>
-      </c>
     </row>
-    <row r="137" spans="92:93">
+    <row r="137" spans="92:92">
       <c r="CN137">
         <v>0</v>
       </c>
-      <c r="CO137">
-        <v>106.3203125</v>
-      </c>
     </row>
-    <row r="138" spans="92:93">
+    <row r="138" spans="92:92">
       <c r="CN138">
         <v>0</v>
       </c>
-      <c r="CO138">
-        <v>118.5703125</v>
-      </c>
     </row>
-    <row r="139" spans="92:93">
+    <row r="139" spans="92:92">
       <c r="CN139">
         <v>0</v>
       </c>
-      <c r="CO139">
-        <v>109.609375</v>
-      </c>
     </row>
-    <row r="140" spans="92:93">
+    <row r="140" spans="92:92">
       <c r="CN140">
         <v>0</v>
       </c>
-      <c r="CO140">
-        <v>109.34375</v>
-      </c>
     </row>
-    <row r="141" spans="92:93">
+    <row r="141" spans="92:92">
       <c r="CN141">
         <v>1</v>
       </c>
-      <c r="CO141">
-        <v>126.8671875</v>
-      </c>
     </row>
-    <row r="142" spans="92:93">
+    <row r="142" spans="92:92">
       <c r="CN142">
         <v>1</v>
       </c>
-      <c r="CO142">
-        <v>110.4453125</v>
-      </c>
     </row>
-    <row r="143" spans="92:93">
+    <row r="143" spans="92:92">
       <c r="CN143">
         <v>0</v>
       </c>
-      <c r="CO143">
-        <v>118.1796875</v>
-      </c>
     </row>
-    <row r="144" spans="92:93">
+    <row r="144" spans="92:92">
       <c r="CN144">
         <v>1</v>
       </c>
-      <c r="CO144">
-        <v>123.5546875</v>
-      </c>
     </row>
-    <row r="145" spans="92:93">
+    <row r="145" spans="92:92">
       <c r="CN145">
         <v>1</v>
       </c>
-      <c r="CO145">
-        <v>117.8046875</v>
-      </c>
     </row>
-    <row r="146" spans="92:93">
+    <row r="146" spans="92:92">
       <c r="CN146">
         <v>0</v>
       </c>
-      <c r="CO146">
-        <v>109.6015625</v>
-      </c>
     </row>
-    <row r="147" spans="92:93">
+    <row r="147" spans="92:92">
       <c r="CN147">
         <v>0</v>
       </c>
-      <c r="CO147">
-        <v>119.1171875</v>
-      </c>
     </row>
-    <row r="148" spans="92:93">
+    <row r="148" spans="92:92">
       <c r="CN148">
         <v>1</v>
       </c>
-      <c r="CO148">
-        <v>129.0546875</v>
-      </c>
     </row>
-    <row r="149" spans="92:93">
+    <row r="149" spans="92:92">
       <c r="CN149">
         <v>1</v>
       </c>
-      <c r="CO149">
-        <v>117.0390625</v>
-      </c>
     </row>
-    <row r="150" spans="92:93">
+    <row r="150" spans="92:92">
       <c r="CN150">
         <v>0</v>
       </c>
-      <c r="CO150">
-        <v>97.9296875</v>
-      </c>
     </row>
-    <row r="151" spans="92:93">
+    <row r="151" spans="92:92">
       <c r="CN151">
         <v>0</v>
       </c>
-      <c r="CO151">
-        <v>117.53125</v>
-      </c>
     </row>
-    <row r="152" spans="92:93">
+    <row r="152" spans="92:92">
       <c r="CN152">
         <v>0</v>
       </c>
-      <c r="CO152">
-        <v>112.265625</v>
-      </c>
     </row>
-    <row r="153" spans="92:93">
+    <row r="153" spans="92:92">
       <c r="CN153">
         <v>0</v>
       </c>
-      <c r="CO153">
-        <v>112.0390625</v>
-      </c>
     </row>
-    <row r="154" spans="92:93">
+    <row r="154" spans="92:92">
       <c r="CN154">
         <v>1</v>
       </c>
-      <c r="CO154">
-        <v>122.828125</v>
-      </c>
     </row>
-    <row r="155" spans="92:93">
+    <row r="155" spans="92:92">
       <c r="CN155">
         <v>0</v>
       </c>
-      <c r="CO155">
-        <v>123.859375</v>
-      </c>
     </row>
-    <row r="156" spans="92:93">
+    <row r="156" spans="92:92">
       <c r="CN156">
         <v>1</v>
       </c>
-      <c r="CO156">
-        <v>120.4609375</v>
-      </c>
     </row>
-    <row r="157" spans="92:93">
+    <row r="157" spans="92:92">
       <c r="CN157">
         <v>1</v>
       </c>
-      <c r="CO157">
-        <v>118.0546875</v>
-      </c>
     </row>
-    <row r="158" spans="92:93">
+    <row r="158" spans="92:92">
       <c r="CN158">
         <v>1</v>
       </c>
-      <c r="CO158">
-        <v>122.0546875</v>
-      </c>
     </row>
-    <row r="159" spans="92:93">
+    <row r="159" spans="92:92">
       <c r="CN159">
         <v>1</v>
       </c>
-      <c r="CO159">
-        <v>122.0546875</v>
-      </c>
     </row>
-    <row r="160" spans="92:93">
+    <row r="160" spans="92:92">
       <c r="CN160">
         <v>1</v>
       </c>
-      <c r="CO160">
-        <v>118.5546875</v>
-      </c>
     </row>
-    <row r="161" spans="92:93">
+    <row r="161" spans="92:92">
       <c r="CN161">
         <v>0</v>
       </c>
-      <c r="CO161">
-        <v>116.4375</v>
-      </c>
     </row>
-    <row r="162" spans="92:93">
+    <row r="162" spans="92:92">
       <c r="CN162">
         <v>0</v>
       </c>
-      <c r="CO162">
-        <v>109.2109375</v>
-      </c>
     </row>
-    <row r="163" spans="92:93">
+    <row r="163" spans="92:92">
       <c r="CN163">
         <v>1</v>
       </c>
-      <c r="CO163">
-        <v>116.5546875</v>
-      </c>
     </row>
-    <row r="164" spans="92:93">
+    <row r="164" spans="92:92">
       <c r="CN164">
         <v>1</v>
       </c>
-      <c r="CO164">
-        <v>121.7421875</v>
-      </c>
     </row>
-    <row r="165" spans="92:93">
+    <row r="165" spans="92:92">
       <c r="CN165">
         <v>1</v>
       </c>
-      <c r="CO165">
-        <v>130.8046875</v>
-      </c>
     </row>
-    <row r="166" spans="92:93">
+    <row r="166" spans="92:92">
       <c r="CN166">
         <v>0</v>
       </c>
-      <c r="CO166">
-        <v>108.265625</v>
-      </c>
     </row>
-    <row r="167" spans="92:93">
+    <row r="167" spans="92:92">
       <c r="CN167">
         <v>1</v>
       </c>
-      <c r="CO167">
-        <v>119.5703125</v>
-      </c>
     </row>
-    <row r="168" spans="92:93">
+    <row r="168" spans="92:92">
       <c r="CN168">
         <v>0</v>
       </c>
-      <c r="CO168">
-        <v>115.4921875</v>
-      </c>
     </row>
-    <row r="169" spans="92:93">
+    <row r="169" spans="92:92">
       <c r="CN169">
         <v>1</v>
       </c>
-      <c r="CO169">
-        <v>122.1953125</v>
-      </c>
     </row>
-    <row r="170" spans="92:93">
+    <row r="170" spans="92:92">
       <c r="CN170">
         <v>1</v>
       </c>
-      <c r="CO170">
-        <v>125.4296875</v>
-      </c>
     </row>
-    <row r="171" spans="92:93">
+    <row r="171" spans="92:92">
       <c r="CN171">
         <v>0</v>
       </c>
-      <c r="CO171">
-        <v>108.3046875</v>
-      </c>
     </row>
-    <row r="172" spans="92:93">
+    <row r="172" spans="92:92">
       <c r="CN172">
         <v>0</v>
       </c>
-      <c r="CO172">
-        <v>112.9375</v>
-      </c>
     </row>
-    <row r="173" spans="92:93">
+    <row r="173" spans="92:92">
       <c r="CN173">
         <v>1</v>
       </c>
-      <c r="CO173">
-        <v>105.8046875</v>
-      </c>
     </row>
-    <row r="174" spans="92:93">
+    <row r="174" spans="92:92">
       <c r="CN174">
         <v>1</v>
       </c>
-      <c r="CO174">
-        <v>118.0546875</v>
-      </c>
     </row>
-    <row r="175" spans="92:93">
+    <row r="175" spans="92:92">
       <c r="CN175">
         <v>1</v>
       </c>
-      <c r="CO175">
-        <v>130.6796875</v>
-      </c>
     </row>
-    <row r="176" spans="92:93">
+    <row r="176" spans="92:92">
       <c r="CN176">
         <v>1</v>
       </c>
-      <c r="CO176">
-        <v>122.5546875</v>
-      </c>
     </row>
-    <row r="177" spans="92:93">
+    <row r="177" spans="92:92">
       <c r="CN177">
         <v>1</v>
       </c>
-      <c r="CO177">
-        <v>130.0859375</v>
-      </c>
     </row>
-    <row r="178" spans="92:93">
+    <row r="178" spans="92:92">
       <c r="CN178">
         <v>0</v>
       </c>
-      <c r="CO178">
-        <v>117.3046875</v>
-      </c>
     </row>
-    <row r="179" spans="92:93">
+    <row r="179" spans="92:92">
       <c r="CN179">
         <v>0</v>
       </c>
-      <c r="CO179">
-        <v>122.2421875</v>
-      </c>
     </row>
-    <row r="180" spans="92:93">
+    <row r="180" spans="92:92">
       <c r="CN180">
         <v>1</v>
       </c>
-      <c r="CO180">
-        <v>113.4296875</v>
-      </c>
     </row>
-    <row r="181" spans="92:93">
+    <row r="181" spans="92:92">
       <c r="CN181">
         <v>1</v>
       </c>
-      <c r="CO181">
-        <v>129.8125</v>
-      </c>
     </row>
-    <row r="182" spans="92:93">
+    <row r="182" spans="92:92">
       <c r="CN182">
         <v>0</v>
       </c>
-      <c r="CO182">
-        <v>114.8046875</v>
-      </c>
     </row>
-    <row r="183" spans="92:93">
+    <row r="183" spans="92:92">
       <c r="CN183">
         <v>0</v>
       </c>
-      <c r="CO183">
-        <v>121.8046875</v>
-      </c>
     </row>
-    <row r="184" spans="92:93">
+    <row r="184" spans="92:92">
       <c r="CN184">
         <v>0</v>
       </c>
-      <c r="CO184">
-        <v>109.8046875</v>
-      </c>
     </row>
-    <row r="185" spans="92:93">
+    <row r="185" spans="92:92">
       <c r="CN185">
         <v>1</v>
       </c>
-      <c r="CO185">
-        <v>121.7421875</v>
-      </c>
     </row>
-    <row r="186" spans="92:93">
+    <row r="186" spans="92:92">
       <c r="CN186">
         <v>1</v>
       </c>
-      <c r="CO186">
-        <v>119.0703125</v>
-      </c>
     </row>
-    <row r="187" spans="92:93">
+    <row r="187" spans="92:92">
       <c r="CN187">
         <v>1</v>
       </c>
-      <c r="CO187">
-        <v>117.6953125</v>
-      </c>
     </row>
-    <row r="188" spans="92:93">
+    <row r="188" spans="92:92">
       <c r="CN188">
         <v>0</v>
       </c>
-      <c r="CO188">
-        <v>113.1796875</v>
-      </c>
     </row>
-    <row r="189" spans="92:93">
+    <row r="189" spans="92:92">
       <c r="CN189">
         <v>1</v>
       </c>
-      <c r="CO189">
-        <v>120.3828125</v>
-      </c>
     </row>
-    <row r="190" spans="92:93">
+    <row r="190" spans="92:92">
       <c r="CN190">
         <v>0</v>
       </c>
-      <c r="CO190">
-        <v>114.4296875</v>
-      </c>
     </row>
-    <row r="191" spans="92:93">
+    <row r="191" spans="92:92">
       <c r="CN191">
         <v>1</v>
       </c>
-      <c r="CO191">
-        <v>119.0546875</v>
-      </c>
     </row>
-    <row r="192" spans="92:93">
+    <row r="192" spans="92:92">
       <c r="CN192">
         <v>1</v>
       </c>
-      <c r="CO192">
-        <v>105.5546875</v>
-      </c>
     </row>
-    <row r="193" spans="92:93">
+    <row r="193" spans="92:92">
       <c r="CN193">
         <v>1</v>
       </c>
-      <c r="CO193">
-        <v>114.3046875</v>
-      </c>
     </row>
-    <row r="194" spans="92:93">
+    <row r="194" spans="92:92">
       <c r="CN194">
         <v>1</v>
       </c>
-      <c r="CO194">
-        <v>117.3046875</v>
-      </c>
     </row>
-    <row r="195" spans="92:93">
+    <row r="195" spans="92:92">
       <c r="CN195">
         <v>1</v>
       </c>
-      <c r="CO195">
-        <v>-1678297235044766</v>
-      </c>
     </row>
-    <row r="196" spans="92:93">
+    <row r="196" spans="92:92">
       <c r="CN196">
         <v>1</v>
       </c>
-      <c r="CO196">
-        <v>119.1875</v>
-      </c>
     </row>
-    <row r="197" spans="92:93">
+    <row r="197" spans="92:92">
       <c r="CN197">
         <v>1</v>
       </c>
-      <c r="CO197">
-        <v>117.8828125</v>
-      </c>
     </row>
-    <row r="198" spans="92:93">
+    <row r="198" spans="92:92">
       <c r="CN198">
         <v>0</v>
       </c>
-      <c r="CO198">
-        <v>111.875</v>
-      </c>
     </row>
-    <row r="199" spans="92:93">
+    <row r="199" spans="92:92">
       <c r="CN199">
         <v>1</v>
       </c>
-      <c r="CO199">
-        <v>113.0546875</v>
-      </c>
     </row>
-    <row r="200" spans="92:93">
+    <row r="200" spans="92:92">
       <c r="CN200">
         <v>1</v>
       </c>
-      <c r="CO200">
-        <v>130.7578125</v>
-      </c>
     </row>
-    <row r="201" spans="92:93">
+    <row r="201" spans="92:92">
       <c r="CN201">
         <v>1</v>
       </c>
-      <c r="CO201">
-        <v>117.5546875</v>
-      </c>
     </row>
-    <row r="202" spans="92:93">
+    <row r="202" spans="92:92">
       <c r="CN202">
         <v>1</v>
       </c>
-      <c r="CO202">
-        <v>123.6953125</v>
-      </c>
     </row>
-    <row r="203" spans="92:93">
+    <row r="203" spans="92:92">
       <c r="CN203">
         <v>1</v>
       </c>
-      <c r="CO203">
-        <v>120.0546875</v>
-      </c>
     </row>
-    <row r="204" spans="92:93">
+    <row r="204" spans="92:92">
       <c r="CN204">
         <v>1</v>
       </c>
-      <c r="CO204">
-        <v>116.0546875</v>
-      </c>
     </row>
-    <row r="205" spans="92:93">
+    <row r="205" spans="92:92">
       <c r="CN205">
         <v>1</v>
       </c>
-      <c r="CO205">
-        <v>115.4921875</v>
-      </c>
     </row>
-    <row r="206" spans="92:93">
+    <row r="206" spans="92:92">
       <c r="CN206">
         <v>1</v>
       </c>
-      <c r="CO206">
-        <v>112.3046875</v>
-      </c>
     </row>
-    <row r="207" spans="92:93">
+    <row r="207" spans="92:92">
       <c r="CN207">
         <v>1</v>
       </c>
-      <c r="CO207">
-        <v>114.6015625</v>
-      </c>
     </row>
-    <row r="208" spans="92:93">
+    <row r="208" spans="92:92">
       <c r="CN208">
         <v>0</v>
       </c>
-      <c r="CO208">
-        <v>107.9296875</v>
-      </c>
     </row>
-    <row r="209" spans="92:93">
+    <row r="209" spans="92:92">
       <c r="CN209">
         <v>0</v>
       </c>
-      <c r="CO209">
-        <v>113.7109375</v>
-      </c>
     </row>
-    <row r="210" spans="92:93">
+    <row r="210" spans="92:92">
       <c r="CN210">
         <v>1</v>
       </c>
-      <c r="CO210">
-        <v>117.4375</v>
-      </c>
     </row>
-    <row r="211" spans="92:93">
+    <row r="211" spans="92:92">
       <c r="CN211">
         <v>1</v>
       </c>
-      <c r="CO211">
-        <v>110.5234375</v>
-      </c>
     </row>
-    <row r="212" spans="92:93">
+    <row r="212" spans="92:92">
       <c r="CN212">
         <v>1</v>
       </c>
-      <c r="CO212">
-        <v>115.5546875</v>
-      </c>
     </row>
-    <row r="213" spans="92:93">
+    <row r="213" spans="92:92">
       <c r="CN213">
         <v>1</v>
       </c>
-      <c r="CO213">
-        <v>120.8671875</v>
-      </c>
     </row>
-    <row r="214" spans="92:93">
+    <row r="214" spans="92:92">
       <c r="CN214">
         <v>1</v>
       </c>
-      <c r="CO214">
-        <v>127.3984375</v>
-      </c>
     </row>
-    <row r="215" spans="92:93">
+    <row r="215" spans="92:92">
       <c r="CN215">
         <v>1</v>
       </c>
-      <c r="CO215">
-        <v>123.0546875</v>
-      </c>
     </row>
-    <row r="216" spans="92:93">
+    <row r="216" spans="92:92">
       <c r="CN216">
         <v>0</v>
       </c>
-      <c r="CO216">
-        <v>112.7421875</v>
-      </c>
     </row>
-    <row r="217" spans="92:93">
+    <row r="217" spans="92:92">
       <c r="CN217">
         <v>0</v>
       </c>
-      <c r="CO217">
-        <v>106.5546875</v>
-      </c>
     </row>
-    <row r="218" spans="92:93">
+    <row r="218" spans="92:92">
       <c r="CN218">
         <v>1</v>
       </c>
-      <c r="CO218">
-        <v>441342299198490.1</v>
-      </c>
     </row>
-    <row r="219" spans="92:93">
+    <row r="219" spans="92:92">
       <c r="CN219">
         <v>1</v>
       </c>
-      <c r="CO219">
-        <v>106.8515625</v>
-      </c>
     </row>
-    <row r="220" spans="92:93">
+    <row r="220" spans="92:92">
       <c r="CN220">
         <v>0</v>
       </c>
-      <c r="CO220">
-        <v>109.8671875</v>
-      </c>
     </row>
-    <row r="221" spans="92:93">
+    <row r="221" spans="92:92">
       <c r="CN221">
         <v>1</v>
       </c>
-      <c r="CO221">
-        <v>113.1796875</v>
-      </c>
     </row>
-    <row r="222" spans="92:93">
+    <row r="222" spans="92:92">
       <c r="CN222">
         <v>0</v>
       </c>
-      <c r="CO222">
-        <v>114.5546875</v>
-      </c>
     </row>
-    <row r="223" spans="92:93">
+    <row r="223" spans="92:92">
       <c r="CN223">
         <v>1</v>
       </c>
-      <c r="CO223">
-        <v>112.5546875</v>
-      </c>
     </row>
-    <row r="224" spans="92:93">
+    <row r="224" spans="92:92">
       <c r="CN224">
         <v>0</v>
       </c>
-      <c r="CO224">
-        <v>112.9765625</v>
-      </c>
     </row>
-    <row r="225" spans="92:93">
+    <row r="225" spans="92:92">
       <c r="CN225">
         <v>0</v>
       </c>
-      <c r="CO225">
-        <v>115.1484375</v>
-      </c>
     </row>
-    <row r="226" spans="92:93">
+    <row r="226" spans="92:92">
       <c r="CN226">
         <v>1</v>
       </c>
-      <c r="CO226">
-        <v>113.1796875</v>
-      </c>
     </row>
-    <row r="227" spans="92:93">
+    <row r="227" spans="92:92">
       <c r="CN227">
         <v>0</v>
-      </c>
-      <c r="CO227">
-        <v>108.8671875</v>
       </c>
     </row>
   </sheetData>
